--- a/excel_emplenat.xlsx
+++ b/excel_emplenat.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>Grups</t>
   </si>
@@ -41,61 +41,61 @@
     <t>PADs Prof.</t>
   </si>
   <si>
-    <t>ampli p</t>
+    <t>ampli P</t>
   </si>
   <si>
-    <t>ampli t</t>
+    <t>ampli T</t>
   </si>
   <si>
-    <t>ampli elect p</t>
+    <t>ampli elect P</t>
   </si>
   <si>
-    <t>ampli elect t</t>
+    <t>ampli elect T</t>
   </si>
   <si>
-    <t>electronica p</t>
+    <t>electronica P</t>
   </si>
   <si>
-    <t>electronica t</t>
+    <t>electronica T</t>
   </si>
   <si>
-    <t>electrotecnia p</t>
+    <t>electrotecnia P</t>
   </si>
   <si>
-    <t>electrotecnia t</t>
+    <t>electrotecnia T</t>
   </si>
   <si>
-    <t>fluids p</t>
+    <t>fluids P</t>
   </si>
   <si>
-    <t>instrumentacio p</t>
+    <t>instrumentacio P</t>
   </si>
   <si>
-    <t>instrumentacio t</t>
+    <t>instrumentacio T</t>
   </si>
   <si>
-    <t>robot p</t>
+    <t>robot P</t>
   </si>
   <si>
-    <t>robot t</t>
+    <t>robot T</t>
   </si>
   <si>
-    <t>sistemes p</t>
+    <t>sistemes P</t>
   </si>
   <si>
-    <t>sistemes t</t>
+    <t>sistemes T</t>
   </si>
   <si>
-    <t>taller elèctric t</t>
+    <t>taller elèctric T</t>
   </si>
   <si>
-    <t>tallet elèctric p</t>
+    <t>tallet elèctric P</t>
   </si>
   <si>
-    <t>tfg t</t>
+    <t>tfg T</t>
   </si>
   <si>
-    <t>tfm t</t>
+    <t>tfm T</t>
   </si>
   <si>
     <t>LB</t>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>D5</t>
-  </si>
-  <si>
-    <t>profe</t>
   </si>
   <si>
     <t>Nom</t>
@@ -697,12 +694,12 @@
   <dimension ref="A1:AMK81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D2" sqref="D2:E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.902834008097" customWidth="true" style="1"/>
+    <col min="1" max="1" width="12.210526315789" customWidth="true" style="1"/>
     <col min="2" max="2" width="7.497975708502" customWidth="true" style="1"/>
     <col min="3" max="3" width="6.5344129554656" customWidth="true" style="1"/>
     <col min="4" max="4" width="8.1417004048583" customWidth="true" style="1"/>
@@ -1735,7 +1732,7 @@
       </c>
       <c r="B1" s="3">
         <f>SUM(D1:BA1)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5">
@@ -1808,7 +1805,7 @@
       </c>
       <c r="U1" s="5">
         <f>IF(U5="","",SUM(U6:U81))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1" s="5">
         <f>IF(V5="","",SUM(V6:V81))</f>
@@ -2044,7 +2041,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="3">
         <f>SUM(D3:BA3)</f>
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D3" s="5">
         <f>IFERROR(D4/D2*D1,"")</f>
@@ -2116,7 +2113,7 @@
       </c>
       <c r="U3" s="5">
         <f>IFERROR(U4/U2*U1,"")</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="V3" s="5">
         <f>IFERROR(V4/V2*V1,"")</f>
@@ -2450,7 +2447,7 @@
       </c>
       <c r="B6" s="5">
         <f>IF(A6="","",SUM(D6:BA6))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="8" t="str">
         <f>IF(A6="","",SUMPRODUCT(D6:BA6,$D$4:$BA$4,1/IF($D$2:$BA$2&lt;&gt;"",$D$2:$BA$2,1)))</f>
@@ -2472,7 +2469,7 @@
         <v>0.0</v>
       </c>
       <c r="I6" s="9">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J6" s="9">
         <v>0.0</v>
@@ -2551,7 +2548,7 @@
       </c>
       <c r="B7" s="5">
         <f>IF(A7="","",SUM(D7:BA7))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="8" t="str">
         <f>IF(A7="","",SUMPRODUCT(D7:BA7,$D$4:$BA$4,1/IF($D$2:$BA$2&lt;&gt;"",$D$2:$BA$2,1)))</f>
@@ -2573,7 +2570,7 @@
         <v>0.0</v>
       </c>
       <c r="I7" s="9">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J7" s="9">
         <v>0.0</v>
@@ -2609,7 +2606,7 @@
         <v>0.0</v>
       </c>
       <c r="U7" s="9">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V7" s="9">
         <v>0.0</v>
@@ -6174,12 +6171,12 @@
   <dimension ref="A1:AMK130"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D2" sqref="D2:E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.388663967611" customWidth="true" style="1"/>
+    <col min="1" max="1" width="12.748987854251" customWidth="true" style="1"/>
     <col min="2" max="2" width="7.497975708502" customWidth="true" style="1"/>
     <col min="3" max="3" width="6.5344129554656" customWidth="true" style="1"/>
     <col min="4" max="4" width="8.1417004048583" customWidth="true" style="1"/>
@@ -7802,9 +7799,9 @@
       <c r="AZ4" s="5"/>
       <c r="BA4" s="5"/>
     </row>
-    <row r="5" spans="1:1025" customHeight="1" ht="13.8">
+    <row r="5" spans="1:1025" customHeight="1" ht="23.25">
       <c r="A5" s="5" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -7812,7 +7809,7 @@
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -7897,7 +7894,7 @@
       </c>
       <c r="B6" s="5">
         <f>IF(A6="","",SUM(D6:BA6))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="8" t="str">
         <f>IF(A6="","",SUMPRODUCT(D6:BA6,$D$4:$BA$4,1/IF($D$2:$BA$2&lt;&gt;"",$D$2:$BA$2,1)))</f>
@@ -7916,7 +7913,7 @@
         <v>0.0</v>
       </c>
       <c r="H6" s="9">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I6" s="9">
         <v>0.0</v>
@@ -7988,7 +7985,7 @@
       </c>
       <c r="B7" s="5">
         <f>IF(A7="","",SUM(D7:BA7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="8" t="str">
         <f>IF(A7="","",SUMPRODUCT(D7:BA7,$D$4:$BA$4,1/IF($D$2:$BA$2&lt;&gt;"",$D$2:$BA$2,1)))</f>
@@ -8007,7 +8004,7 @@
         <v>0.0</v>
       </c>
       <c r="H7" s="9">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I7" s="9">
         <v>0.0</v>
@@ -11657,12 +11654,12 @@
   <dimension ref="A1:AMK130"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D2" sqref="D2:E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.388663967611" customWidth="true" style="1"/>
+    <col min="1" max="1" width="12.63967611336" customWidth="true" style="1"/>
     <col min="2" max="2" width="7.497975708502" customWidth="true" style="1"/>
     <col min="3" max="3" width="6.5344129554656" customWidth="true" style="1"/>
     <col min="4" max="4" width="8.1417004048583" customWidth="true" style="1"/>
@@ -13241,9 +13238,9 @@
       <c r="AZ4" s="5"/>
       <c r="BA4" s="5"/>
     </row>
-    <row r="5" spans="1:1025" customHeight="1" ht="13.8">
+    <row r="5" spans="1:1025" customHeight="1" ht="23.25">
       <c r="A5" s="5" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -13251,7 +13248,7 @@
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -16216,7 +16213,7 @@
   <dimension ref="A1:AMK20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2:E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17250,16 +17247,16 @@
   <sheetData>
     <row r="1" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>0</v>
@@ -17267,13 +17264,13 @@
     </row>
     <row r="2" spans="1:1025">
       <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>63</v>
-      </c>
-      <c r="C2" t="s">
-        <v>64</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -17284,13 +17281,13 @@
     </row>
     <row r="3" spans="1:1025">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
         <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -17301,13 +17298,13 @@
     </row>
     <row r="4" spans="1:1025">
       <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -17318,13 +17315,13 @@
     </row>
     <row r="5" spans="1:1025">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -17335,13 +17332,13 @@
     </row>
     <row r="6" spans="1:1025">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -17352,13 +17349,13 @@
     </row>
     <row r="7" spans="1:1025">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
         <v>65</v>
-      </c>
-      <c r="C7" t="s">
-        <v>66</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -17369,13 +17366,13 @@
     </row>
     <row r="8" spans="1:1025">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -17386,13 +17383,13 @@
     </row>
     <row r="9" spans="1:1025">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
         <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -17403,13 +17400,13 @@
     </row>
     <row r="10" spans="1:1025">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -17420,13 +17417,13 @@
     </row>
     <row r="11" spans="1:1025">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -17437,13 +17434,13 @@
     </row>
     <row r="12" spans="1:1025">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
         <v>65</v>
-      </c>
-      <c r="C12" t="s">
-        <v>66</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -17454,13 +17451,13 @@
     </row>
     <row r="13" spans="1:1025">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -17471,13 +17468,13 @@
     </row>
     <row r="14" spans="1:1025">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
         <v>65</v>
-      </c>
-      <c r="C14" t="s">
-        <v>66</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -17488,13 +17485,13 @@
     </row>
     <row r="15" spans="1:1025">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -17505,13 +17502,13 @@
     </row>
     <row r="16" spans="1:1025">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
         <v>65</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -17522,13 +17519,13 @@
     </row>
     <row r="17" spans="1:1025">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -17539,13 +17536,13 @@
     </row>
     <row r="18" spans="1:1025">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
         <v>63</v>
-      </c>
-      <c r="C18" t="s">
-        <v>64</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -17556,13 +17553,13 @@
     </row>
     <row r="19" spans="1:1025">
       <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
         <v>77</v>
-      </c>
-      <c r="B19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" t="s">
-        <v>78</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -17573,13 +17570,13 @@
     </row>
     <row r="20" spans="1:1025">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20">
         <v>6</v>

--- a/excel_emplenat.xlsx
+++ b/excel_emplenat.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>Grups</t>
   </si>
@@ -41,61 +41,61 @@
     <t>PADs Prof.</t>
   </si>
   <si>
-    <t>ampli p</t>
+    <t>ampli P</t>
   </si>
   <si>
-    <t>ampli t</t>
+    <t>ampli T</t>
   </si>
   <si>
-    <t>ampli elect p</t>
+    <t>ampli elect P</t>
   </si>
   <si>
-    <t>ampli elect t</t>
+    <t>ampli elect T</t>
   </si>
   <si>
-    <t>electronica p</t>
+    <t>electronica P</t>
   </si>
   <si>
-    <t>electronica t</t>
+    <t>electronica T</t>
   </si>
   <si>
-    <t>electrotecnia p</t>
+    <t>electrotecnia P</t>
   </si>
   <si>
-    <t>electrotecnia t</t>
+    <t>electrotecnia T</t>
   </si>
   <si>
-    <t>fluids p</t>
+    <t>fluids P</t>
   </si>
   <si>
-    <t>instrumentacio p</t>
+    <t>instrumentacio P</t>
   </si>
   <si>
-    <t>instrumentacio t</t>
+    <t>instrumentacio T</t>
   </si>
   <si>
-    <t>robot p</t>
+    <t>robot P</t>
   </si>
   <si>
-    <t>robot t</t>
+    <t>robot T</t>
   </si>
   <si>
-    <t>sistemes p</t>
+    <t>sistemes P</t>
   </si>
   <si>
-    <t>sistemes t</t>
+    <t>sistemes T</t>
   </si>
   <si>
-    <t>taller elèctric t</t>
+    <t>taller elèctric T</t>
   </si>
   <si>
-    <t>tallet elèctric p</t>
+    <t>tallet elèctric P</t>
   </si>
   <si>
-    <t>tfg t</t>
+    <t>tfg T</t>
   </si>
   <si>
-    <t>tfm t</t>
+    <t>tfm T</t>
   </si>
   <si>
     <t>LB</t>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>D5</t>
-  </si>
-  <si>
-    <t>profe</t>
   </si>
   <si>
     <t>Nom</t>
@@ -697,12 +694,12 @@
   <dimension ref="A1:AMK81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D2" sqref="D2:E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.902834008097" customWidth="true" style="1"/>
+    <col min="1" max="1" width="12.210526315789" customWidth="true" style="1"/>
     <col min="2" max="2" width="7.497975708502" customWidth="true" style="1"/>
     <col min="3" max="3" width="6.5344129554656" customWidth="true" style="1"/>
     <col min="4" max="4" width="8.1417004048583" customWidth="true" style="1"/>
@@ -1735,7 +1732,7 @@
       </c>
       <c r="B1" s="3">
         <f>SUM(D1:BA1)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5">
@@ -1760,7 +1757,7 @@
       </c>
       <c r="I1" s="5">
         <f>IF(I5="","",SUM(I6:I81))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1" s="5">
         <f>IF(J5="","",SUM(J6:J81))</f>
@@ -2044,7 +2041,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="3">
         <f>SUM(D3:BA3)</f>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D3" s="5">
         <f>IFERROR(D4/D2*D1,"")</f>
@@ -2068,7 +2065,7 @@
       </c>
       <c r="I3" s="5">
         <f>IFERROR(I4/I2*I1,"")</f>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J3" s="5">
         <f>IFERROR(J4/J2*J1,"")</f>
@@ -2450,7 +2447,7 @@
       </c>
       <c r="B6" s="5">
         <f>IF(A6="","",SUM(D6:BA6))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="8" t="str">
         <f>IF(A6="","",SUMPRODUCT(D6:BA6,$D$4:$BA$4,1/IF($D$2:$BA$2&lt;&gt;"",$D$2:$BA$2,1)))</f>
@@ -2508,7 +2505,7 @@
         <v>0.0</v>
       </c>
       <c r="U6" s="9">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V6" s="9">
         <v>0.0</v>
@@ -2551,7 +2548,7 @@
       </c>
       <c r="B7" s="5">
         <f>IF(A7="","",SUM(D7:BA7))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="8" t="str">
         <f>IF(A7="","",SUMPRODUCT(D7:BA7,$D$4:$BA$4,1/IF($D$2:$BA$2&lt;&gt;"",$D$2:$BA$2,1)))</f>
@@ -2573,7 +2570,7 @@
         <v>0.0</v>
       </c>
       <c r="I7" s="9">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J7" s="9">
         <v>0.0</v>
@@ -2609,7 +2606,7 @@
         <v>0.0</v>
       </c>
       <c r="U7" s="9">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V7" s="9">
         <v>0.0</v>
@@ -6174,12 +6171,12 @@
   <dimension ref="A1:AMK130"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D2" sqref="D2:E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.388663967611" customWidth="true" style="1"/>
+    <col min="1" max="1" width="12.748987854251" customWidth="true" style="1"/>
     <col min="2" max="2" width="7.497975708502" customWidth="true" style="1"/>
     <col min="3" max="3" width="6.5344129554656" customWidth="true" style="1"/>
     <col min="4" max="4" width="8.1417004048583" customWidth="true" style="1"/>
@@ -7212,7 +7209,7 @@
       </c>
       <c r="B1" s="3">
         <f>SUM(D1:BA1)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5">
@@ -7233,7 +7230,7 @@
       </c>
       <c r="H1" s="5">
         <f>IF(H5="","",SUM(H6:H81))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1" s="5">
         <f>IF(I5="","",SUM(I6:I81))</f>
@@ -7511,7 +7508,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="3">
         <f>SUM(D3:BA3)</f>
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D3" s="5">
         <f>IFERROR(D4/D2*D1,"")</f>
@@ -7531,7 +7528,7 @@
       </c>
       <c r="H3" s="5">
         <f>IFERROR(H4/H2*H1,"")</f>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I3" s="5">
         <f>IFERROR(I4/I2*I1,"")</f>
@@ -7802,9 +7799,9 @@
       <c r="AZ4" s="5"/>
       <c r="BA4" s="5"/>
     </row>
-    <row r="5" spans="1:1025" customHeight="1" ht="13.8">
+    <row r="5" spans="1:1025" customHeight="1" ht="23.25">
       <c r="A5" s="5" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -7812,7 +7809,7 @@
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -7988,7 +7985,7 @@
       </c>
       <c r="B7" s="5">
         <f>IF(A7="","",SUM(D7:BA7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="8" t="str">
         <f>IF(A7="","",SUMPRODUCT(D7:BA7,$D$4:$BA$4,1/IF($D$2:$BA$2&lt;&gt;"",$D$2:$BA$2,1)))</f>
@@ -8007,7 +8004,7 @@
         <v>0.0</v>
       </c>
       <c r="H7" s="9">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I7" s="9">
         <v>0.0</v>
@@ -11657,12 +11654,12 @@
   <dimension ref="A1:AMK130"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D2" sqref="D2:E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.388663967611" customWidth="true" style="1"/>
+    <col min="1" max="1" width="12.63967611336" customWidth="true" style="1"/>
     <col min="2" max="2" width="7.497975708502" customWidth="true" style="1"/>
     <col min="3" max="3" width="6.5344129554656" customWidth="true" style="1"/>
     <col min="4" max="4" width="8.1417004048583" customWidth="true" style="1"/>
@@ -13241,9 +13238,9 @@
       <c r="AZ4" s="5"/>
       <c r="BA4" s="5"/>
     </row>
-    <row r="5" spans="1:1025" customHeight="1" ht="13.8">
+    <row r="5" spans="1:1025" customHeight="1" ht="23.25">
       <c r="A5" s="5" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -13251,7 +13248,7 @@
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -16216,7 +16213,7 @@
   <dimension ref="A1:AMK20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2:E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17250,16 +17247,16 @@
   <sheetData>
     <row r="1" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>0</v>
@@ -17267,13 +17264,13 @@
     </row>
     <row r="2" spans="1:1025">
       <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>63</v>
-      </c>
-      <c r="C2" t="s">
-        <v>64</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -17284,13 +17281,13 @@
     </row>
     <row r="3" spans="1:1025">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
         <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -17301,13 +17298,13 @@
     </row>
     <row r="4" spans="1:1025">
       <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -17318,13 +17315,13 @@
     </row>
     <row r="5" spans="1:1025">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -17335,13 +17332,13 @@
     </row>
     <row r="6" spans="1:1025">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -17352,13 +17349,13 @@
     </row>
     <row r="7" spans="1:1025">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
         <v>65</v>
-      </c>
-      <c r="C7" t="s">
-        <v>66</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -17369,13 +17366,13 @@
     </row>
     <row r="8" spans="1:1025">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -17386,13 +17383,13 @@
     </row>
     <row r="9" spans="1:1025">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
         <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -17403,13 +17400,13 @@
     </row>
     <row r="10" spans="1:1025">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -17420,13 +17417,13 @@
     </row>
     <row r="11" spans="1:1025">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -17437,13 +17434,13 @@
     </row>
     <row r="12" spans="1:1025">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
         <v>65</v>
-      </c>
-      <c r="C12" t="s">
-        <v>66</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -17454,13 +17451,13 @@
     </row>
     <row r="13" spans="1:1025">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -17471,13 +17468,13 @@
     </row>
     <row r="14" spans="1:1025">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
         <v>65</v>
-      </c>
-      <c r="C14" t="s">
-        <v>66</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -17488,13 +17485,13 @@
     </row>
     <row r="15" spans="1:1025">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -17505,13 +17502,13 @@
     </row>
     <row r="16" spans="1:1025">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
         <v>65</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -17522,13 +17519,13 @@
     </row>
     <row r="17" spans="1:1025">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -17539,13 +17536,13 @@
     </row>
     <row r="18" spans="1:1025">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
         <v>63</v>
-      </c>
-      <c r="C18" t="s">
-        <v>64</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -17556,13 +17553,13 @@
     </row>
     <row r="19" spans="1:1025">
       <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
         <v>77</v>
-      </c>
-      <c r="B19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" t="s">
-        <v>78</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -17573,13 +17570,13 @@
     </row>
     <row r="20" spans="1:1025">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20">
         <v>6</v>

--- a/excel_emplenat.xlsx
+++ b/excel_emplenat.xlsx
@@ -1732,7 +1732,7 @@
       </c>
       <c r="B1" s="3">
         <f>SUM(D1:BA1)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="I1" s="5">
         <f>IF(I5="","",SUM(I6:I81))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1" s="5">
         <f>IF(J5="","",SUM(J6:J81))</f>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="U1" s="5">
         <f>IF(U5="","",SUM(U6:U81))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V1" s="5">
         <f>IF(V5="","",SUM(V6:V81))</f>
@@ -2041,7 +2041,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="3">
         <f>SUM(D3:BA3)</f>
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D3" s="5">
         <f>IFERROR(D4/D2*D1,"")</f>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="I3" s="5">
         <f>IFERROR(I4/I2*I1,"")</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J3" s="5">
         <f>IFERROR(J4/J2*J1,"")</f>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="U3" s="5">
         <f>IFERROR(U4/U2*U1,"")</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="V3" s="5">
         <f>IFERROR(V4/V2*V1,"")</f>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="B6" s="5">
         <f>IF(A6="","",SUM(D6:BA6))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" s="8" t="str">
         <f>IF(A6="","",SUMPRODUCT(D6:BA6,$D$4:$BA$4,1/IF($D$2:$BA$2&lt;&gt;"",$D$2:$BA$2,1)))</f>
@@ -2469,7 +2469,7 @@
         <v>0.0</v>
       </c>
       <c r="I6" s="9">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J6" s="9">
         <v>0.0</v>
@@ -2505,7 +2505,7 @@
         <v>0.0</v>
       </c>
       <c r="U6" s="9">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V6" s="9">
         <v>0.0</v>
@@ -7209,7 +7209,7 @@
       </c>
       <c r="B1" s="3">
         <f>SUM(D1:BA1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5">
@@ -7230,7 +7230,7 @@
       </c>
       <c r="H1" s="5">
         <f>IF(H5="","",SUM(H6:H81))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1" s="5">
         <f>IF(I5="","",SUM(I6:I81))</f>
@@ -7508,7 +7508,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="3">
         <f>SUM(D3:BA3)</f>
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D3" s="5">
         <f>IFERROR(D4/D2*D1,"")</f>
@@ -7528,7 +7528,7 @@
       </c>
       <c r="H3" s="5">
         <f>IFERROR(H4/H2*H1,"")</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I3" s="5">
         <f>IFERROR(I4/I2*I1,"")</f>
@@ -7894,7 +7894,7 @@
       </c>
       <c r="B6" s="5">
         <f>IF(A6="","",SUM(D6:BA6))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="8" t="str">
         <f>IF(A6="","",SUMPRODUCT(D6:BA6,$D$4:$BA$4,1/IF($D$2:$BA$2&lt;&gt;"",$D$2:$BA$2,1)))</f>
@@ -7913,7 +7913,7 @@
         <v>0.0</v>
       </c>
       <c r="H6" s="9">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I6" s="9">
         <v>0.0</v>

--- a/excel_emplenat.xlsx
+++ b/excel_emplenat.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>Grups</t>
   </si>
@@ -53,18 +53,6 @@
     <t>ampli elect T</t>
   </si>
   <si>
-    <t>electronica P</t>
-  </si>
-  <si>
-    <t>electronica T</t>
-  </si>
-  <si>
-    <t>electrotecnia P</t>
-  </si>
-  <si>
-    <t>electrotecnia T</t>
-  </si>
-  <si>
     <t>fluids P</t>
   </si>
   <si>
@@ -86,25 +74,16 @@
     <t>sistemes T</t>
   </si>
   <si>
-    <t>taller elèctric T</t>
-  </si>
-  <si>
     <t>tallet elèctric P</t>
-  </si>
-  <si>
-    <t>tfg T</t>
-  </si>
-  <si>
-    <t>tfm T</t>
   </si>
   <si>
     <t>LB</t>
   </si>
   <si>
-    <t>JMME</t>
+    <t>MC</t>
   </si>
   <si>
-    <t>MC</t>
+    <t>JMME</t>
   </si>
   <si>
     <t>SB</t>
@@ -224,12 +203,6 @@
     <t>practica</t>
   </si>
   <si>
-    <t>electronica</t>
-  </si>
-  <si>
-    <t>electrotecnia</t>
-  </si>
-  <si>
     <t>fluids</t>
   </si>
   <si>
@@ -242,19 +215,7 @@
     <t>sistemes</t>
   </si>
   <si>
-    <t>taller elèctric</t>
-  </si>
-  <si>
     <t>tallet elèctric</t>
-  </si>
-  <si>
-    <t>tfg</t>
-  </si>
-  <si>
-    <t>tots</t>
-  </si>
-  <si>
-    <t>tfm</t>
   </si>
 </sst>
 </file>
@@ -1732,7 +1693,7 @@
       </c>
       <c r="B1" s="3">
         <f>SUM(D1:BA1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5">
@@ -1781,35 +1742,35 @@
       </c>
       <c r="O1" s="5">
         <f>IF(O5="","",SUM(O6:O81))</f>
-        <v>0</v>
-      </c>
-      <c r="P1" s="5">
+        <v>4</v>
+      </c>
+      <c r="P1" s="5" t="str">
         <f>IF(P5="","",SUM(P6:P81))</f>
-        <v>0</v>
-      </c>
-      <c r="Q1" s="5">
+        <v/>
+      </c>
+      <c r="Q1" s="5" t="str">
         <f>IF(Q5="","",SUM(Q6:Q81))</f>
-        <v>4</v>
-      </c>
-      <c r="R1" s="5">
+        <v/>
+      </c>
+      <c r="R1" s="5" t="str">
         <f>IF(R5="","",SUM(R6:R81))</f>
-        <v>0</v>
-      </c>
-      <c r="S1" s="5">
+        <v/>
+      </c>
+      <c r="S1" s="5" t="str">
         <f>IF(S5="","",SUM(S6:S81))</f>
-        <v>0</v>
-      </c>
-      <c r="T1" s="5">
+        <v/>
+      </c>
+      <c r="T1" s="5" t="str">
         <f>IF(T5="","",SUM(T6:T81))</f>
-        <v>0</v>
-      </c>
-      <c r="U1" s="5">
+        <v/>
+      </c>
+      <c r="U1" s="5" t="str">
         <f>IF(U5="","",SUM(U6:U81))</f>
-        <v>1</v>
-      </c>
-      <c r="V1" s="5">
+        <v/>
+      </c>
+      <c r="V1" s="5" t="str">
         <f>IF(V5="","",SUM(V6:V81))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="W1" s="5" t="str">
         <f>IF(W5="","",SUM(W6:W81))</f>
@@ -1942,7 +1903,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(D2:AMJ2)</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5">
@@ -1958,50 +1919,36 @@
         <v>2</v>
       </c>
       <c r="H2" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" s="5">
         <v>3</v>
       </c>
       <c r="M2" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N2" s="5">
         <v>2</v>
       </c>
       <c r="O2" s="5">
-        <v>2</v>
-      </c>
-      <c r="P2" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="5">
         <v>4</v>
       </c>
-      <c r="R2" s="5">
-        <v>2</v>
-      </c>
-      <c r="S2" s="5">
-        <v>2</v>
-      </c>
-      <c r="T2" s="5">
-        <v>4</v>
-      </c>
-      <c r="U2" s="5">
-        <v>1</v>
-      </c>
-      <c r="V2" s="5">
-        <v>2</v>
-      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
@@ -2041,7 +1988,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="3">
         <f>SUM(D3:BA3)</f>
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5">
         <f>IFERROR(D4/D2*D1,"")</f>
@@ -2065,7 +2012,7 @@
       </c>
       <c r="I3" s="5">
         <f>IFERROR(I4/I2*I1,"")</f>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J3" s="5">
         <f>IFERROR(J4/J2*J1,"")</f>
@@ -2089,35 +2036,35 @@
       </c>
       <c r="O3" s="5">
         <f>IFERROR(O4/O2*O1,"")</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="5">
+        <v>36</v>
+      </c>
+      <c r="P3" s="5" t="str">
         <f>IFERROR(P4/P2*P1,"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="5">
+        <v/>
+      </c>
+      <c r="Q3" s="5" t="str">
         <f>IFERROR(Q4/Q2*Q1,"")</f>
-        <v>24</v>
-      </c>
-      <c r="R3" s="5">
+        <v/>
+      </c>
+      <c r="R3" s="5" t="str">
         <f>IFERROR(R4/R2*R1,"")</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="5">
+        <v/>
+      </c>
+      <c r="S3" s="5" t="str">
         <f>IFERROR(S4/S2*S1,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="5">
+        <v/>
+      </c>
+      <c r="T3" s="5" t="str">
         <f>IFERROR(T4/T2*T1,"")</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="5">
+        <v/>
+      </c>
+      <c r="U3" s="5" t="str">
         <f>IFERROR(U4/U2*U1,"")</f>
-        <v>18</v>
-      </c>
-      <c r="V3" s="5">
+        <v/>
+      </c>
+      <c r="V3" s="5" t="str">
         <f>IFERROR(V4/V2*V1,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="W3" s="5" t="str">
         <f>IFERROR(W4/W2*W1,"")</f>
@@ -2251,7 +2198,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="3">
         <f>SUM(D4:BA4)</f>
-        <v>420</v>
+        <v>261</v>
       </c>
       <c r="D4" s="5">
         <v>30</v>
@@ -2266,50 +2213,36 @@
         <v>12</v>
       </c>
       <c r="H4" s="5">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I4" s="5">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="J4" s="5">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K4" s="5">
         <v>18</v>
       </c>
       <c r="L4" s="5">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M4" s="5">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N4" s="5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="O4" s="5">
-        <v>18</v>
-      </c>
-      <c r="P4" s="5">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>24</v>
-      </c>
-      <c r="R4" s="5">
-        <v>24</v>
-      </c>
-      <c r="S4" s="5">
-        <v>24</v>
-      </c>
-      <c r="T4" s="5">
         <v>36</v>
       </c>
-      <c r="U4" s="5">
-        <v>18</v>
-      </c>
-      <c r="V4" s="5">
-        <v>36</v>
-      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
@@ -2388,27 +2321,13 @@
       <c r="O5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
@@ -2443,11 +2362,11 @@
     </row>
     <row r="6" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A6" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5">
         <f>IF(A6="","",SUM(D6:BA6))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="8" t="str">
         <f>IF(A6="","",SUMPRODUCT(D6:BA6,$D$4:$BA$4,1/IF($D$2:$BA$2&lt;&gt;"",$D$2:$BA$2,1)))</f>
@@ -2487,29 +2406,19 @@
         <v>0.0</v>
       </c>
       <c r="O6" s="9">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="P6" s="9">
         <v>0.0</v>
       </c>
       <c r="Q6" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="R6" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S6" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T6" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U6" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="V6" s="9">
-        <v>0.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
@@ -2544,7 +2453,7 @@
     </row>
     <row r="7" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A7" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5">
         <f>IF(A7="","",SUM(D7:BA7))</f>
@@ -2596,26 +2505,16 @@
       <c r="Q7" s="9">
         <v>0.0</v>
       </c>
-      <c r="R7" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S7" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T7" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U7" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V7" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
       <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5">
         <f>IF(A8="","",SUM(D8:BA8))</f>
@@ -2667,26 +2566,16 @@
       <c r="Q8" s="9">
         <v>0.0</v>
       </c>
-      <c r="R8" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S8" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T8" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U8" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V8" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A9" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B9" s="5">
         <f>IF(A9="","",SUM(D9:BA9))</f>
@@ -2738,26 +2627,16 @@
       <c r="Q9" s="9">
         <v>0.0</v>
       </c>
-      <c r="R9" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S9" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T9" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U9" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V9" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A10" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5">
         <f>IF(A10="","",SUM(D10:BA10))</f>
@@ -2809,26 +2688,16 @@
       <c r="Q10" s="9">
         <v>0.0</v>
       </c>
-      <c r="R10" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S10" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T10" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U10" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V10" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
       <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B11" s="5">
         <f>IF(A11="","",SUM(D11:BA11))</f>
@@ -2880,26 +2749,16 @@
       <c r="Q11" s="9">
         <v>0.0</v>
       </c>
-      <c r="R11" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S11" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T11" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U11" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V11" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
       <c r="W11" s="9"/>
     </row>
     <row r="12" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A12" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B12" s="5">
         <f>IF(A12="","",SUM(D12:BA12))</f>
@@ -2951,26 +2810,16 @@
       <c r="Q12" s="9">
         <v>0.0</v>
       </c>
-      <c r="R12" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S12" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T12" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U12" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V12" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
       <c r="W12" s="9"/>
     </row>
     <row r="13" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A13" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5">
         <f>IF(A13="","",SUM(D13:BA13))</f>
@@ -3022,26 +2871,16 @@
       <c r="Q13" s="9">
         <v>0.0</v>
       </c>
-      <c r="R13" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S13" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T13" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U13" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V13" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
       <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A14" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B14" s="5">
         <f>IF(A14="","",SUM(D14:BA14))</f>
@@ -3093,26 +2932,16 @@
       <c r="Q14" s="9">
         <v>0.0</v>
       </c>
-      <c r="R14" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S14" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T14" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U14" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V14" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
       <c r="W14" s="9"/>
     </row>
     <row r="15" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A15" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B15" s="5">
         <f>IF(A15="","",SUM(D15:BA15))</f>
@@ -3164,26 +2993,16 @@
       <c r="Q15" s="9">
         <v>0.0</v>
       </c>
-      <c r="R15" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S15" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T15" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U15" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V15" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
       <c r="W15" s="9"/>
     </row>
     <row r="16" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A16" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B16" s="5">
         <f>IF(A16="","",SUM(D16:BA16))</f>
@@ -3235,26 +3054,16 @@
       <c r="Q16" s="9">
         <v>0.0</v>
       </c>
-      <c r="R16" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S16" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T16" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U16" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V16" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
       <c r="W16" s="9"/>
     </row>
     <row r="17" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B17" s="5">
         <f>IF(A17="","",SUM(D17:BA17))</f>
@@ -3306,26 +3115,16 @@
       <c r="Q17" s="9">
         <v>0.0</v>
       </c>
-      <c r="R17" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S17" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T17" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U17" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V17" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
       <c r="W17" s="9"/>
     </row>
     <row r="18" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A18" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B18" s="5">
         <f>IF(A18="","",SUM(D18:BA18))</f>
@@ -3377,26 +3176,16 @@
       <c r="Q18" s="9">
         <v>0.0</v>
       </c>
-      <c r="R18" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S18" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T18" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U18" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V18" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
       <c r="W18" s="9"/>
     </row>
     <row r="19" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A19" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B19" s="5">
         <f>IF(A19="","",SUM(D19:BA19))</f>
@@ -3448,26 +3237,16 @@
       <c r="Q19" s="9">
         <v>0.0</v>
       </c>
-      <c r="R19" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S19" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T19" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U19" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V19" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A20" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B20" s="5">
         <f>IF(A20="","",SUM(D20:BA20))</f>
@@ -3519,26 +3298,16 @@
       <c r="Q20" s="9">
         <v>0.0</v>
       </c>
-      <c r="R20" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S20" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T20" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U20" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V20" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
       <c r="W20" s="9"/>
     </row>
     <row r="21" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A21" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B21" s="5">
         <f>IF(A21="","",SUM(D21:BA21))</f>
@@ -3590,26 +3359,16 @@
       <c r="Q21" s="9">
         <v>0.0</v>
       </c>
-      <c r="R21" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S21" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T21" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U21" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V21" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
       <c r="W21" s="9"/>
     </row>
     <row r="22" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A22" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B22" s="5">
         <f>IF(A22="","",SUM(D22:BA22))</f>
@@ -3661,26 +3420,16 @@
       <c r="Q22" s="9">
         <v>0.0</v>
       </c>
-      <c r="R22" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S22" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T22" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U22" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V22" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
       <c r="W22" s="9"/>
     </row>
     <row r="23" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A23" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B23" s="5">
         <f>IF(A23="","",SUM(D23:BA23))</f>
@@ -3732,26 +3481,16 @@
       <c r="Q23" s="9">
         <v>0.0</v>
       </c>
-      <c r="R23" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S23" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T23" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U23" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V23" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
       <c r="W23" s="9"/>
     </row>
     <row r="24" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A24" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B24" s="5">
         <f>IF(A24="","",SUM(D24:BA24))</f>
@@ -3803,26 +3542,16 @@
       <c r="Q24" s="9">
         <v>0.0</v>
       </c>
-      <c r="R24" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S24" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T24" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U24" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V24" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
       <c r="W24" s="9"/>
     </row>
     <row r="25" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A25" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B25" s="5">
         <f>IF(A25="","",SUM(D25:BA25))</f>
@@ -3874,26 +3603,16 @@
       <c r="Q25" s="9">
         <v>0.0</v>
       </c>
-      <c r="R25" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S25" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T25" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U25" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V25" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
       <c r="W25" s="9"/>
     </row>
     <row r="26" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A26" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B26" s="5">
         <f>IF(A26="","",SUM(D26:BA26))</f>
@@ -3945,26 +3664,16 @@
       <c r="Q26" s="9">
         <v>0.0</v>
       </c>
-      <c r="R26" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S26" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T26" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U26" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V26" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
       <c r="W26" s="9"/>
     </row>
     <row r="27" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A27" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B27" s="5">
         <f>IF(A27="","",SUM(D27:BA27))</f>
@@ -4016,26 +3725,16 @@
       <c r="Q27" s="9">
         <v>0.0</v>
       </c>
-      <c r="R27" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S27" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T27" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U27" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V27" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
       <c r="W27" s="9"/>
     </row>
     <row r="28" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A28" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B28" s="5">
         <f>IF(A28="","",SUM(D28:BA28))</f>
@@ -4087,26 +3786,16 @@
       <c r="Q28" s="9">
         <v>0.0</v>
       </c>
-      <c r="R28" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S28" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T28" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U28" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V28" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
       <c r="W28" s="9"/>
     </row>
     <row r="29" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A29" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B29" s="5">
         <f>IF(A29="","",SUM(D29:BA29))</f>
@@ -4158,26 +3847,16 @@
       <c r="Q29" s="9">
         <v>0.0</v>
       </c>
-      <c r="R29" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S29" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T29" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U29" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V29" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
       <c r="W29" s="9"/>
     </row>
     <row r="30" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A30" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B30" s="5">
         <f>IF(A30="","",SUM(D30:BA30))</f>
@@ -4229,26 +3908,16 @@
       <c r="Q30" s="9">
         <v>0.0</v>
       </c>
-      <c r="R30" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S30" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T30" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U30" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V30" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
       <c r="W30" s="9"/>
     </row>
     <row r="31" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A31" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B31" s="5">
         <f>IF(A31="","",SUM(D31:BA31))</f>
@@ -4300,26 +3969,16 @@
       <c r="Q31" s="9">
         <v>0.0</v>
       </c>
-      <c r="R31" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S31" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T31" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U31" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V31" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
       <c r="W31" s="9"/>
     </row>
     <row r="32" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A32" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B32" s="5">
         <f>IF(A32="","",SUM(D32:BA32))</f>
@@ -4371,26 +4030,16 @@
       <c r="Q32" s="9">
         <v>0.0</v>
       </c>
-      <c r="R32" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S32" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T32" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U32" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V32" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
       <c r="W32" s="9"/>
     </row>
     <row r="33" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A33" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B33" s="5">
         <f>IF(A33="","",SUM(D33:BA33))</f>
@@ -4442,26 +4091,16 @@
       <c r="Q33" s="9">
         <v>0.0</v>
       </c>
-      <c r="R33" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S33" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T33" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U33" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V33" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
       <c r="W33" s="9"/>
     </row>
     <row r="34" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A34" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B34" s="5">
         <f>IF(A34="","",SUM(D34:BA34))</f>
@@ -4513,26 +4152,16 @@
       <c r="Q34" s="9">
         <v>0.0</v>
       </c>
-      <c r="R34" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S34" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T34" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U34" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V34" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
       <c r="W34" s="9"/>
     </row>
     <row r="35" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A35" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B35" s="5">
         <f>IF(A35="","",SUM(D35:BA35))</f>
@@ -4584,26 +4213,16 @@
       <c r="Q35" s="9">
         <v>0.0</v>
       </c>
-      <c r="R35" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S35" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T35" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U35" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V35" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
       <c r="W35" s="9"/>
     </row>
     <row r="36" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A36" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B36" s="5">
         <f>IF(A36="","",SUM(D36:BA36))</f>
@@ -4655,26 +4274,16 @@
       <c r="Q36" s="9">
         <v>0.0</v>
       </c>
-      <c r="R36" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S36" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T36" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U36" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V36" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
       <c r="W36" s="9"/>
     </row>
     <row r="37" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A37" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B37" s="5">
         <f>IF(A37="","",SUM(D37:BA37))</f>
@@ -4726,26 +4335,16 @@
       <c r="Q37" s="9">
         <v>0.0</v>
       </c>
-      <c r="R37" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S37" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T37" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U37" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V37" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
       <c r="W37" s="9"/>
     </row>
     <row r="38" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A38" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B38" s="5">
         <f>IF(A38="","",SUM(D38:BA38))</f>
@@ -4797,26 +4396,16 @@
       <c r="Q38" s="9">
         <v>0.0</v>
       </c>
-      <c r="R38" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S38" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T38" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U38" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V38" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
       <c r="W38" s="9"/>
     </row>
     <row r="39" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A39" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B39" s="5">
         <f>IF(A39="","",SUM(D39:BA39))</f>
@@ -4868,26 +4457,16 @@
       <c r="Q39" s="9">
         <v>0.0</v>
       </c>
-      <c r="R39" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S39" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T39" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U39" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V39" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
       <c r="W39" s="9"/>
     </row>
     <row r="40" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A40" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B40" s="5">
         <f>IF(A40="","",SUM(D40:BA40))</f>
@@ -4939,26 +4518,16 @@
       <c r="Q40" s="9">
         <v>0.0</v>
       </c>
-      <c r="R40" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S40" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T40" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U40" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V40" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
       <c r="W40" s="9"/>
     </row>
     <row r="41" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A41" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B41" s="5">
         <f>IF(A41="","",SUM(D41:BA41))</f>
@@ -5010,26 +4579,16 @@
       <c r="Q41" s="9">
         <v>0.0</v>
       </c>
-      <c r="R41" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S41" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T41" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U41" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V41" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
       <c r="W41" s="9"/>
     </row>
     <row r="42" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A42" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B42" s="5">
         <f>IF(A42="","",SUM(D42:BA42))</f>
@@ -5081,26 +4640,16 @@
       <c r="Q42" s="9">
         <v>0.0</v>
       </c>
-      <c r="R42" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S42" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T42" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U42" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V42" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
       <c r="W42" s="9"/>
     </row>
     <row r="43" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A43" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B43" s="5">
         <f>IF(A43="","",SUM(D43:BA43))</f>
@@ -5152,26 +4701,16 @@
       <c r="Q43" s="9">
         <v>0.0</v>
       </c>
-      <c r="R43" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S43" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T43" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U43" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V43" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
       <c r="W43" s="9"/>
     </row>
     <row r="44" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A44" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B44" s="5">
         <f>IF(A44="","",SUM(D44:BA44))</f>
@@ -5223,21 +4762,11 @@
       <c r="Q44" s="9">
         <v>0.0</v>
       </c>
-      <c r="R44" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S44" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T44" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U44" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="V44" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
       <c r="W44" s="9"/>
     </row>
     <row r="45" spans="1:1025" customHeight="1" ht="13.8">
@@ -7209,7 +6738,7 @@
       </c>
       <c r="B1" s="3">
         <f>SUM(D1:BA1)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5">
@@ -7252,21 +6781,21 @@
         <f>IF(M5="","",SUM(M6:M81))</f>
         <v>0</v>
       </c>
-      <c r="N1" s="5">
+      <c r="N1" s="5" t="str">
         <f>IF(N5="","",SUM(N6:N81))</f>
-        <v>0</v>
-      </c>
-      <c r="O1" s="5">
+        <v/>
+      </c>
+      <c r="O1" s="5" t="str">
         <f>IF(O5="","",SUM(O6:O81))</f>
-        <v>0</v>
-      </c>
-      <c r="P1" s="5">
+        <v/>
+      </c>
+      <c r="P1" s="5" t="str">
         <f>IF(P5="","",SUM(P6:P81))</f>
-        <v>4</v>
-      </c>
-      <c r="Q1" s="5">
+        <v/>
+      </c>
+      <c r="Q1" s="5" t="str">
         <f>IF(Q5="","",SUM(Q6:Q81))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="R1" s="5" t="str">
         <f>IF(R5="","",SUM(R6:R81))</f>
@@ -7419,7 +6948,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(D2:BA2)</f>
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5">
@@ -7432,38 +6961,30 @@
         <v>2</v>
       </c>
       <c r="G2" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" s="5">
         <v>3</v>
       </c>
       <c r="L2" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2" s="5">
         <v>2</v>
       </c>
-      <c r="N2" s="5">
-        <v>2</v>
-      </c>
-      <c r="O2" s="5">
-        <v>3</v>
-      </c>
-      <c r="P2" s="5">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>2</v>
-      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
@@ -7508,7 +7029,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="3">
         <f>SUM(D3:BA3)</f>
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5">
         <f>IFERROR(D4/D2*D1,"")</f>
@@ -7528,7 +7049,7 @@
       </c>
       <c r="H3" s="5">
         <f>IFERROR(H4/H2*H1,"")</f>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I3" s="5">
         <f>IFERROR(I4/I2*I1,"")</f>
@@ -7550,21 +7071,21 @@
         <f>IFERROR(M4/M2*M1,"")</f>
         <v>0</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="5" t="str">
         <f>IFERROR(N4/N2*N1,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="5">
+        <v/>
+      </c>
+      <c r="O3" s="5" t="str">
         <f>IFERROR(O4/O2*O1,"")</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="5">
+        <v/>
+      </c>
+      <c r="P3" s="5" t="str">
         <f>IFERROR(P4/P2*P1,"")</f>
-        <v>24</v>
-      </c>
-      <c r="Q3" s="5">
+        <v/>
+      </c>
+      <c r="Q3" s="5" t="str">
         <f>IFERROR(Q4/Q2*Q1,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="R3" s="5" t="str">
         <f>IFERROR(R4/R2*R1,"")</f>
@@ -7718,7 +7239,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="3">
         <f>SUM(D4:BA4)</f>
-        <v>276</v>
+        <v>195</v>
       </c>
       <c r="D4" s="5">
         <v>24</v>
@@ -7730,38 +7251,30 @@
         <v>12</v>
       </c>
       <c r="G4" s="5">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H4" s="5">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I4" s="5">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J4" s="5">
         <v>18</v>
       </c>
       <c r="K4" s="5">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L4" s="5">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M4" s="5">
-        <v>18</v>
-      </c>
-      <c r="N4" s="5">
-        <v>18</v>
-      </c>
-      <c r="O4" s="5">
-        <v>27</v>
-      </c>
-      <c r="P4" s="5">
         <v>24</v>
       </c>
-      <c r="Q4" s="5">
-        <v>24</v>
-      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -7839,18 +7352,10 @@
       <c r="M5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
@@ -7890,7 +7395,7 @@
     </row>
     <row r="6" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A6" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5">
         <f>IF(A6="","",SUM(D6:BA6))</f>
@@ -7931,17 +7436,13 @@
         <v>0.0</v>
       </c>
       <c r="N6" s="9">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="O6" s="9">
         <v>0.0</v>
       </c>
-      <c r="P6" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
@@ -7981,7 +7482,7 @@
     </row>
     <row r="7" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A7" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5">
         <f>IF(A7="","",SUM(D7:BA7))</f>
@@ -8027,12 +7528,8 @@
       <c r="O7" s="9">
         <v>0.0</v>
       </c>
-      <c r="P7" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
@@ -8042,7 +7539,7 @@
     </row>
     <row r="8" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5">
         <f>IF(A8="","",SUM(D8:BA8))</f>
@@ -8088,12 +7585,8 @@
       <c r="O8" s="9">
         <v>0.0</v>
       </c>
-      <c r="P8" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
@@ -8103,7 +7596,7 @@
     </row>
     <row r="9" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A9" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B9" s="5">
         <f>IF(A9="","",SUM(D9:BA9))</f>
@@ -8149,12 +7642,8 @@
       <c r="O9" s="9">
         <v>0.0</v>
       </c>
-      <c r="P9" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
@@ -8164,7 +7653,7 @@
     </row>
     <row r="10" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A10" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5">
         <f>IF(A10="","",SUM(D10:BA10))</f>
@@ -8210,12 +7699,8 @@
       <c r="O10" s="9">
         <v>0.0</v>
       </c>
-      <c r="P10" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
@@ -8225,7 +7710,7 @@
     </row>
     <row r="11" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B11" s="5">
         <f>IF(A11="","",SUM(D11:BA11))</f>
@@ -8271,12 +7756,8 @@
       <c r="O11" s="9">
         <v>0.0</v>
       </c>
-      <c r="P11" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
@@ -8286,7 +7767,7 @@
     </row>
     <row r="12" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A12" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B12" s="5">
         <f>IF(A12="","",SUM(D12:BA12))</f>
@@ -8332,12 +7813,8 @@
       <c r="O12" s="9">
         <v>0.0</v>
       </c>
-      <c r="P12" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
@@ -8347,7 +7824,7 @@
     </row>
     <row r="13" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A13" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5">
         <f>IF(A13="","",SUM(D13:BA13))</f>
@@ -8393,12 +7870,8 @@
       <c r="O13" s="9">
         <v>0.0</v>
       </c>
-      <c r="P13" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
@@ -8408,7 +7881,7 @@
     </row>
     <row r="14" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A14" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B14" s="5">
         <f>IF(A14="","",SUM(D14:BA14))</f>
@@ -8454,12 +7927,8 @@
       <c r="O14" s="9">
         <v>0.0</v>
       </c>
-      <c r="P14" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -8469,7 +7938,7 @@
     </row>
     <row r="15" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A15" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B15" s="5">
         <f>IF(A15="","",SUM(D15:BA15))</f>
@@ -8515,12 +7984,8 @@
       <c r="O15" s="9">
         <v>0.0</v>
       </c>
-      <c r="P15" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q15" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
@@ -8530,7 +7995,7 @@
     </row>
     <row r="16" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A16" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B16" s="5">
         <f>IF(A16="","",SUM(D16:BA16))</f>
@@ -8576,12 +8041,8 @@
       <c r="O16" s="9">
         <v>0.0</v>
       </c>
-      <c r="P16" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
@@ -8591,7 +8052,7 @@
     </row>
     <row r="17" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B17" s="5">
         <f>IF(A17="","",SUM(D17:BA17))</f>
@@ -8637,12 +8098,8 @@
       <c r="O17" s="9">
         <v>0.0</v>
       </c>
-      <c r="P17" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -8652,7 +8109,7 @@
     </row>
     <row r="18" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A18" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B18" s="5">
         <f>IF(A18="","",SUM(D18:BA18))</f>
@@ -8698,12 +8155,8 @@
       <c r="O18" s="9">
         <v>0.0</v>
       </c>
-      <c r="P18" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
@@ -8713,7 +8166,7 @@
     </row>
     <row r="19" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A19" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B19" s="5">
         <f>IF(A19="","",SUM(D19:BA19))</f>
@@ -8759,12 +8212,8 @@
       <c r="O19" s="9">
         <v>0.0</v>
       </c>
-      <c r="P19" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -8774,7 +8223,7 @@
     </row>
     <row r="20" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A20" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B20" s="5">
         <f>IF(A20="","",SUM(D20:BA20))</f>
@@ -8820,12 +8269,8 @@
       <c r="O20" s="9">
         <v>0.0</v>
       </c>
-      <c r="P20" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
@@ -8835,7 +8280,7 @@
     </row>
     <row r="21" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A21" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B21" s="5">
         <f>IF(A21="","",SUM(D21:BA21))</f>
@@ -8881,12 +8326,8 @@
       <c r="O21" s="9">
         <v>0.0</v>
       </c>
-      <c r="P21" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q21" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
@@ -8896,7 +8337,7 @@
     </row>
     <row r="22" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A22" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B22" s="5">
         <f>IF(A22="","",SUM(D22:BA22))</f>
@@ -8942,12 +8383,8 @@
       <c r="O22" s="9">
         <v>0.0</v>
       </c>
-      <c r="P22" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
@@ -8957,7 +8394,7 @@
     </row>
     <row r="23" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A23" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B23" s="5">
         <f>IF(A23="","",SUM(D23:BA23))</f>
@@ -9003,12 +8440,8 @@
       <c r="O23" s="9">
         <v>0.0</v>
       </c>
-      <c r="P23" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q23" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
@@ -9018,7 +8451,7 @@
     </row>
     <row r="24" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A24" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B24" s="5">
         <f>IF(A24="","",SUM(D24:BA24))</f>
@@ -9064,12 +8497,8 @@
       <c r="O24" s="9">
         <v>0.0</v>
       </c>
-      <c r="P24" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
@@ -9079,7 +8508,7 @@
     </row>
     <row r="25" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A25" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B25" s="5">
         <f>IF(A25="","",SUM(D25:BA25))</f>
@@ -9125,12 +8554,8 @@
       <c r="O25" s="9">
         <v>0.0</v>
       </c>
-      <c r="P25" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
@@ -9140,7 +8565,7 @@
     </row>
     <row r="26" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A26" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B26" s="5">
         <f>IF(A26="","",SUM(D26:BA26))</f>
@@ -9186,12 +8611,8 @@
       <c r="O26" s="9">
         <v>0.0</v>
       </c>
-      <c r="P26" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
@@ -9201,7 +8622,7 @@
     </row>
     <row r="27" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A27" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B27" s="5">
         <f>IF(A27="","",SUM(D27:BA27))</f>
@@ -9247,12 +8668,8 @@
       <c r="O27" s="9">
         <v>0.0</v>
       </c>
-      <c r="P27" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
@@ -9262,7 +8679,7 @@
     </row>
     <row r="28" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A28" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B28" s="5">
         <f>IF(A28="","",SUM(D28:BA28))</f>
@@ -9308,12 +8725,8 @@
       <c r="O28" s="9">
         <v>0.0</v>
       </c>
-      <c r="P28" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q28" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
@@ -9323,7 +8736,7 @@
     </row>
     <row r="29" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A29" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B29" s="5">
         <f>IF(A29="","",SUM(D29:BA29))</f>
@@ -9369,12 +8782,8 @@
       <c r="O29" s="9">
         <v>0.0</v>
       </c>
-      <c r="P29" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q29" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
@@ -9384,7 +8793,7 @@
     </row>
     <row r="30" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A30" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B30" s="5">
         <f>IF(A30="","",SUM(D30:BA30))</f>
@@ -9430,12 +8839,8 @@
       <c r="O30" s="9">
         <v>0.0</v>
       </c>
-      <c r="P30" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q30" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
@@ -9445,7 +8850,7 @@
     </row>
     <row r="31" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A31" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B31" s="5">
         <f>IF(A31="","",SUM(D31:BA31))</f>
@@ -9491,12 +8896,8 @@
       <c r="O31" s="9">
         <v>0.0</v>
       </c>
-      <c r="P31" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q31" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
@@ -9506,7 +8907,7 @@
     </row>
     <row r="32" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A32" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B32" s="5">
         <f>IF(A32="","",SUM(D32:BA32))</f>
@@ -9552,12 +8953,8 @@
       <c r="O32" s="9">
         <v>0.0</v>
       </c>
-      <c r="P32" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q32" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
@@ -9567,7 +8964,7 @@
     </row>
     <row r="33" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A33" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B33" s="5">
         <f>IF(A33="","",SUM(D33:BA33))</f>
@@ -9613,12 +9010,8 @@
       <c r="O33" s="9">
         <v>0.0</v>
       </c>
-      <c r="P33" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q33" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
@@ -9628,7 +9021,7 @@
     </row>
     <row r="34" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A34" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B34" s="5">
         <f>IF(A34="","",SUM(D34:BA34))</f>
@@ -9674,12 +9067,8 @@
       <c r="O34" s="9">
         <v>0.0</v>
       </c>
-      <c r="P34" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q34" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
@@ -9689,7 +9078,7 @@
     </row>
     <row r="35" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A35" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B35" s="5">
         <f>IF(A35="","",SUM(D35:BA35))</f>
@@ -9735,12 +9124,8 @@
       <c r="O35" s="9">
         <v>0.0</v>
       </c>
-      <c r="P35" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q35" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
@@ -9750,7 +9135,7 @@
     </row>
     <row r="36" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A36" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B36" s="5">
         <f>IF(A36="","",SUM(D36:BA36))</f>
@@ -9796,12 +9181,8 @@
       <c r="O36" s="9">
         <v>0.0</v>
       </c>
-      <c r="P36" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q36" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
@@ -9811,7 +9192,7 @@
     </row>
     <row r="37" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A37" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B37" s="5">
         <f>IF(A37="","",SUM(D37:BA37))</f>
@@ -9857,12 +9238,8 @@
       <c r="O37" s="9">
         <v>0.0</v>
       </c>
-      <c r="P37" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q37" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
@@ -9872,7 +9249,7 @@
     </row>
     <row r="38" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A38" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B38" s="5">
         <f>IF(A38="","",SUM(D38:BA38))</f>
@@ -9918,12 +9295,8 @@
       <c r="O38" s="9">
         <v>0.0</v>
       </c>
-      <c r="P38" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q38" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
@@ -9933,7 +9306,7 @@
     </row>
     <row r="39" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A39" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B39" s="5">
         <f>IF(A39="","",SUM(D39:BA39))</f>
@@ -9979,12 +9352,8 @@
       <c r="O39" s="9">
         <v>0.0</v>
       </c>
-      <c r="P39" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q39" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
@@ -9994,7 +9363,7 @@
     </row>
     <row r="40" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A40" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B40" s="5">
         <f>IF(A40="","",SUM(D40:BA40))</f>
@@ -10040,12 +9409,8 @@
       <c r="O40" s="9">
         <v>0.0</v>
       </c>
-      <c r="P40" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q40" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
@@ -10055,7 +9420,7 @@
     </row>
     <row r="41" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A41" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B41" s="5">
         <f>IF(A41="","",SUM(D41:BA41))</f>
@@ -10101,12 +9466,8 @@
       <c r="O41" s="9">
         <v>0.0</v>
       </c>
-      <c r="P41" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q41" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
@@ -10116,7 +9477,7 @@
     </row>
     <row r="42" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A42" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B42" s="5">
         <f>IF(A42="","",SUM(D42:BA42))</f>
@@ -10162,12 +9523,8 @@
       <c r="O42" s="9">
         <v>0.0</v>
       </c>
-      <c r="P42" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q42" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
@@ -10177,7 +9534,7 @@
     </row>
     <row r="43" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A43" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B43" s="5">
         <f>IF(A43="","",SUM(D43:BA43))</f>
@@ -10223,12 +9580,8 @@
       <c r="O43" s="9">
         <v>0.0</v>
       </c>
-      <c r="P43" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q43" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
@@ -10238,7 +9591,7 @@
     </row>
     <row r="44" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A44" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B44" s="5">
         <f>IF(A44="","",SUM(D44:BA44))</f>
@@ -10284,12 +9637,8 @@
       <c r="O44" s="9">
         <v>0.0</v>
       </c>
-      <c r="P44" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Q44" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
@@ -12703,9 +12052,9 @@
         <f>IF(E5="","",SUM(E6:E81))</f>
         <v>0</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="5" t="str">
         <f>IF(F5="","",SUM(F6:F81))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="G1" s="5" t="str">
         <f>IF(G5="","",SUM(G6:G81))</f>
@@ -12902,18 +12251,16 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(D2:BA2)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5">
         <v>2</v>
       </c>
       <c r="E2" s="5">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5">
         <v>4</v>
       </c>
+      <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -12979,9 +12326,9 @@
         <f>IFERROR(E4/E2*E1,"")</f>
         <v>0</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="5" t="str">
         <f>IFERROR(F4/F2*F1,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="G3" s="5" t="str">
         <f>IFERROR(G4/G2*G1,"")</f>
@@ -13179,17 +12526,15 @@
       <c r="B4" s="4"/>
       <c r="C4" s="3">
         <f>SUM(D4:BA4)</f>
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="D4" s="5">
         <v>30</v>
       </c>
       <c r="E4" s="5">
-        <v>24</v>
-      </c>
-      <c r="F4" s="5">
         <v>36</v>
       </c>
+      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -13252,11 +12597,9 @@
         <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -13307,7 +12650,7 @@
     </row>
     <row r="6" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A6" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5">
         <f>IF(A6="","",SUM(D6:BA6))</f>
@@ -13323,9 +12666,7 @@
       <c r="E6" s="9">
         <v>0.0</v>
       </c>
-      <c r="F6" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -13376,7 +12717,7 @@
     </row>
     <row r="7" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A7" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5">
         <f>IF(A7="","",SUM(D7:BA7))</f>
@@ -13392,9 +12733,7 @@
       <c r="E7" s="9">
         <v>0.0</v>
       </c>
-      <c r="F7" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -13415,7 +12754,7 @@
     </row>
     <row r="8" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5">
         <f>IF(A8="","",SUM(D8:BA8))</f>
@@ -13431,9 +12770,7 @@
       <c r="E8" s="9">
         <v>0.0</v>
       </c>
-      <c r="F8" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -13454,7 +12791,7 @@
     </row>
     <row r="9" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A9" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B9" s="5">
         <f>IF(A9="","",SUM(D9:BA9))</f>
@@ -13470,9 +12807,7 @@
       <c r="E9" s="9">
         <v>0.0</v>
       </c>
-      <c r="F9" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -13493,7 +12828,7 @@
     </row>
     <row r="10" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A10" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5">
         <f>IF(A10="","",SUM(D10:BA10))</f>
@@ -13509,9 +12844,7 @@
       <c r="E10" s="9">
         <v>0.0</v>
       </c>
-      <c r="F10" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -13532,7 +12865,7 @@
     </row>
     <row r="11" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B11" s="5">
         <f>IF(A11="","",SUM(D11:BA11))</f>
@@ -13548,9 +12881,7 @@
       <c r="E11" s="9">
         <v>0.0</v>
       </c>
-      <c r="F11" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -13571,7 +12902,7 @@
     </row>
     <row r="12" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A12" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B12" s="5">
         <f>IF(A12="","",SUM(D12:BA12))</f>
@@ -13587,9 +12918,7 @@
       <c r="E12" s="9">
         <v>0.0</v>
       </c>
-      <c r="F12" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -13610,7 +12939,7 @@
     </row>
     <row r="13" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A13" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5">
         <f>IF(A13="","",SUM(D13:BA13))</f>
@@ -13626,9 +12955,7 @@
       <c r="E13" s="9">
         <v>0.0</v>
       </c>
-      <c r="F13" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -13649,7 +12976,7 @@
     </row>
     <row r="14" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A14" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B14" s="5">
         <f>IF(A14="","",SUM(D14:BA14))</f>
@@ -13665,9 +12992,7 @@
       <c r="E14" s="9">
         <v>0.0</v>
       </c>
-      <c r="F14" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -13688,7 +13013,7 @@
     </row>
     <row r="15" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A15" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B15" s="5">
         <f>IF(A15="","",SUM(D15:BA15))</f>
@@ -13704,9 +13029,7 @@
       <c r="E15" s="9">
         <v>0.0</v>
       </c>
-      <c r="F15" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -13727,7 +13050,7 @@
     </row>
     <row r="16" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A16" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B16" s="5">
         <f>IF(A16="","",SUM(D16:BA16))</f>
@@ -13743,9 +13066,7 @@
       <c r="E16" s="9">
         <v>0.0</v>
       </c>
-      <c r="F16" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -13766,7 +13087,7 @@
     </row>
     <row r="17" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B17" s="5">
         <f>IF(A17="","",SUM(D17:BA17))</f>
@@ -13782,9 +13103,7 @@
       <c r="E17" s="9">
         <v>0.0</v>
       </c>
-      <c r="F17" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -13805,7 +13124,7 @@
     </row>
     <row r="18" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A18" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B18" s="5">
         <f>IF(A18="","",SUM(D18:BA18))</f>
@@ -13821,9 +13140,7 @@
       <c r="E18" s="9">
         <v>0.0</v>
       </c>
-      <c r="F18" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -13844,7 +13161,7 @@
     </row>
     <row r="19" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A19" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B19" s="5">
         <f>IF(A19="","",SUM(D19:BA19))</f>
@@ -13860,9 +13177,7 @@
       <c r="E19" s="9">
         <v>0.0</v>
       </c>
-      <c r="F19" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -13883,7 +13198,7 @@
     </row>
     <row r="20" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A20" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B20" s="5">
         <f>IF(A20="","",SUM(D20:BA20))</f>
@@ -13899,9 +13214,7 @@
       <c r="E20" s="9">
         <v>0.0</v>
       </c>
-      <c r="F20" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -13922,7 +13235,7 @@
     </row>
     <row r="21" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A21" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B21" s="5">
         <f>IF(A21="","",SUM(D21:BA21))</f>
@@ -13938,9 +13251,7 @@
       <c r="E21" s="9">
         <v>0.0</v>
       </c>
-      <c r="F21" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -13961,7 +13272,7 @@
     </row>
     <row r="22" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A22" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B22" s="5">
         <f>IF(A22="","",SUM(D22:BA22))</f>
@@ -13977,9 +13288,7 @@
       <c r="E22" s="9">
         <v>0.0</v>
       </c>
-      <c r="F22" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -14000,7 +13309,7 @@
     </row>
     <row r="23" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A23" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B23" s="5">
         <f>IF(A23="","",SUM(D23:BA23))</f>
@@ -14016,9 +13325,7 @@
       <c r="E23" s="9">
         <v>0.0</v>
       </c>
-      <c r="F23" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -14039,7 +13346,7 @@
     </row>
     <row r="24" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A24" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B24" s="5">
         <f>IF(A24="","",SUM(D24:BA24))</f>
@@ -14055,9 +13362,7 @@
       <c r="E24" s="9">
         <v>0.0</v>
       </c>
-      <c r="F24" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -14078,7 +13383,7 @@
     </row>
     <row r="25" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A25" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B25" s="5">
         <f>IF(A25="","",SUM(D25:BA25))</f>
@@ -14094,9 +13399,7 @@
       <c r="E25" s="9">
         <v>0.0</v>
       </c>
-      <c r="F25" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -14117,7 +13420,7 @@
     </row>
     <row r="26" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A26" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B26" s="5">
         <f>IF(A26="","",SUM(D26:BA26))</f>
@@ -14133,9 +13436,7 @@
       <c r="E26" s="9">
         <v>0.0</v>
       </c>
-      <c r="F26" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -14156,7 +13457,7 @@
     </row>
     <row r="27" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A27" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B27" s="5">
         <f>IF(A27="","",SUM(D27:BA27))</f>
@@ -14172,9 +13473,7 @@
       <c r="E27" s="9">
         <v>0.0</v>
       </c>
-      <c r="F27" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -14195,7 +13494,7 @@
     </row>
     <row r="28" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A28" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B28" s="5">
         <f>IF(A28="","",SUM(D28:BA28))</f>
@@ -14211,9 +13510,7 @@
       <c r="E28" s="9">
         <v>0.0</v>
       </c>
-      <c r="F28" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -14234,7 +13531,7 @@
     </row>
     <row r="29" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A29" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B29" s="5">
         <f>IF(A29="","",SUM(D29:BA29))</f>
@@ -14250,9 +13547,7 @@
       <c r="E29" s="9">
         <v>0.0</v>
       </c>
-      <c r="F29" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -14273,7 +13568,7 @@
     </row>
     <row r="30" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A30" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B30" s="5">
         <f>IF(A30="","",SUM(D30:BA30))</f>
@@ -14289,9 +13584,7 @@
       <c r="E30" s="9">
         <v>0.0</v>
       </c>
-      <c r="F30" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -14312,7 +13605,7 @@
     </row>
     <row r="31" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A31" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B31" s="5">
         <f>IF(A31="","",SUM(D31:BA31))</f>
@@ -14328,9 +13621,7 @@
       <c r="E31" s="9">
         <v>0.0</v>
       </c>
-      <c r="F31" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -14351,7 +13642,7 @@
     </row>
     <row r="32" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A32" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B32" s="5">
         <f>IF(A32="","",SUM(D32:BA32))</f>
@@ -14367,9 +13658,7 @@
       <c r="E32" s="9">
         <v>0.0</v>
       </c>
-      <c r="F32" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
@@ -14390,7 +13679,7 @@
     </row>
     <row r="33" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A33" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B33" s="5">
         <f>IF(A33="","",SUM(D33:BA33))</f>
@@ -14406,9 +13695,7 @@
       <c r="E33" s="9">
         <v>0.0</v>
       </c>
-      <c r="F33" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
@@ -14429,7 +13716,7 @@
     </row>
     <row r="34" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A34" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B34" s="5">
         <f>IF(A34="","",SUM(D34:BA34))</f>
@@ -14445,9 +13732,7 @@
       <c r="E34" s="9">
         <v>0.0</v>
       </c>
-      <c r="F34" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -14468,7 +13753,7 @@
     </row>
     <row r="35" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A35" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B35" s="5">
         <f>IF(A35="","",SUM(D35:BA35))</f>
@@ -14484,9 +13769,7 @@
       <c r="E35" s="9">
         <v>0.0</v>
       </c>
-      <c r="F35" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -14507,7 +13790,7 @@
     </row>
     <row r="36" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A36" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B36" s="5">
         <f>IF(A36="","",SUM(D36:BA36))</f>
@@ -14523,9 +13806,7 @@
       <c r="E36" s="9">
         <v>0.0</v>
       </c>
-      <c r="F36" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -14546,7 +13827,7 @@
     </row>
     <row r="37" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A37" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B37" s="5">
         <f>IF(A37="","",SUM(D37:BA37))</f>
@@ -14562,9 +13843,7 @@
       <c r="E37" s="9">
         <v>0.0</v>
       </c>
-      <c r="F37" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
@@ -14585,7 +13864,7 @@
     </row>
     <row r="38" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A38" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B38" s="5">
         <f>IF(A38="","",SUM(D38:BA38))</f>
@@ -14601,9 +13880,7 @@
       <c r="E38" s="9">
         <v>0.0</v>
       </c>
-      <c r="F38" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -14624,7 +13901,7 @@
     </row>
     <row r="39" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A39" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B39" s="5">
         <f>IF(A39="","",SUM(D39:BA39))</f>
@@ -14640,9 +13917,7 @@
       <c r="E39" s="9">
         <v>0.0</v>
       </c>
-      <c r="F39" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
@@ -14663,7 +13938,7 @@
     </row>
     <row r="40" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A40" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B40" s="5">
         <f>IF(A40="","",SUM(D40:BA40))</f>
@@ -14679,9 +13954,7 @@
       <c r="E40" s="9">
         <v>0.0</v>
       </c>
-      <c r="F40" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -14702,7 +13975,7 @@
     </row>
     <row r="41" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A41" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B41" s="5">
         <f>IF(A41="","",SUM(D41:BA41))</f>
@@ -14718,9 +13991,7 @@
       <c r="E41" s="9">
         <v>0.0</v>
       </c>
-      <c r="F41" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
@@ -14741,7 +14012,7 @@
     </row>
     <row r="42" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A42" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B42" s="5">
         <f>IF(A42="","",SUM(D42:BA42))</f>
@@ -14757,9 +14028,7 @@
       <c r="E42" s="9">
         <v>0.0</v>
       </c>
-      <c r="F42" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -14780,7 +14049,7 @@
     </row>
     <row r="43" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A43" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B43" s="5">
         <f>IF(A43="","",SUM(D43:BA43))</f>
@@ -14796,9 +14065,7 @@
       <c r="E43" s="9">
         <v>0.0</v>
       </c>
-      <c r="F43" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
@@ -14819,7 +14086,7 @@
     </row>
     <row r="44" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A44" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B44" s="5">
         <f>IF(A44="","",SUM(D44:BA44))</f>
@@ -14835,9 +14102,7 @@
       <c r="E44" s="9">
         <v>0.0</v>
       </c>
-      <c r="F44" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
@@ -16210,7 +15475,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AMK20"/>
+  <dimension ref="A1:AMK13"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D2" sqref="D2:E174"/>
@@ -17247,16 +16512,16 @@
   <sheetData>
     <row r="1" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A1" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>0</v>
@@ -17264,13 +16529,13 @@
     </row>
     <row r="2" spans="1:1025">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -17281,13 +16546,13 @@
     </row>
     <row r="3" spans="1:1025">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -17298,13 +16563,13 @@
     </row>
     <row r="4" spans="1:1025">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -17315,13 +16580,13 @@
     </row>
     <row r="5" spans="1:1025">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -17332,84 +16597,84 @@
     </row>
     <row r="6" spans="1:1025">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
         <v>3</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1025">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1025">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:1025">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
         <v>2</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:1025">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -17417,33 +16682,33 @@
     </row>
     <row r="11" spans="1:1025">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:1025">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -17451,138 +16716,19 @@
     </row>
     <row r="13" spans="1:1025">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1025">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1025">
-      <c r="A15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
         <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1025">
-      <c r="A16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1025">
-      <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1025">
-      <c r="A18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1025">
-      <c r="A19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1025">
-      <c r="A20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20">
-        <v>6</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/excel_emplenat.xlsx
+++ b/excel_emplenat.xlsx
@@ -1568,12 +1568,12 @@
       </c>
       <c r="B1" s="3">
         <f>SUM(D1:BA1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5">
         <f>IF(D5="","",SUM(D6:D81))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="5">
         <f>IF(E5="","",SUM(E6:E81))</f>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="F1" s="5">
         <f>IF(F5="","",SUM(F6:F81))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1" s="5" t="str">
         <f>IF(G5="","",SUM(G6:G81))</f>
@@ -1845,11 +1845,11 @@
       <c r="B3" s="4"/>
       <c r="C3" s="3">
         <f>SUM(D3:BA3)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D3" s="5">
         <f>IFERROR(D4/D2*D1,"")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E3" s="5">
         <f>IFERROR(E4/E2*E1,"")</f>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="F3" s="5">
         <f>IFERROR(F4/F2*F1,"")</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G3" s="5" t="str">
         <f>IFERROR(G4/G2*G1,"")</f>
@@ -2187,20 +2187,20 @@
       </c>
       <c r="B6" s="5">
         <f>IF(A6="","",SUM(D6:BA6))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="8">
         <f>IF(A6="","",SUMPRODUCT(D6:BA6,$D$83:$BA$83))</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D6" s="9">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E6" s="9">
         <v>0.0</v>
       </c>
       <c r="F6" s="9">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -5792,12 +5792,12 @@
       </c>
       <c r="B1" s="3">
         <f>SUM(D1:BA1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5">
         <f>IF(D5="","",SUM(D6:D81))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="5" t="str">
         <f>IF(E5="","",SUM(E6:E81))</f>
@@ -6065,11 +6065,11 @@
       <c r="B3" s="4"/>
       <c r="C3" s="3">
         <f>SUM(D3:BA3)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5">
         <f>IFERROR(D4/D2*D1,"")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E3" s="5" t="str">
         <f>IFERROR(E4/E2*E1,"")</f>
@@ -6399,14 +6399,14 @@
       </c>
       <c r="B6" s="5">
         <f>IF(A6="","",SUM(D6:BA6))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="8">
         <f>IF(A6="","",SUMPRODUCT(D6:BA6,D83:BA83))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D6" s="9">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>

--- a/excel_emplenat.xlsx
+++ b/excel_emplenat.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>Grups</t>
   </si>
@@ -50,10 +50,97 @@
     <t>tfg T</t>
   </si>
   <si>
-    <t>LB</t>
+    <t>MDL</t>
   </si>
   <si>
     <t>JMME</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>Pw</t>
+  </si>
+  <si>
+    <t>Sw</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>Dd</t>
+  </si>
+  <si>
+    <t>Vb</t>
+  </si>
+  <si>
+    <t>Pj</t>
+  </si>
+  <si>
+    <t>Rd</t>
+  </si>
+  <si>
+    <t>Dr</t>
+  </si>
+  <si>
+    <t>Vg</t>
+  </si>
+  <si>
+    <t>Ph</t>
+  </si>
+  <si>
+    <t>Sr</t>
+  </si>
+  <si>
+    <t>De</t>
+  </si>
+  <si>
+    <t>Vj</t>
+  </si>
+  <si>
+    <t>Sf</t>
+  </si>
+  <si>
+    <t>Rs</t>
+  </si>
+  <si>
+    <t>Dt</t>
+  </si>
+  <si>
+    <t>Pt</t>
+  </si>
+  <si>
+    <t>Sv</t>
+  </si>
+  <si>
+    <t>Ds</t>
+  </si>
+  <si>
+    <t>Py</t>
+  </si>
+  <si>
+    <t>Ru</t>
+  </si>
+  <si>
+    <t>D5</t>
   </si>
   <si>
     <t>PADS/assign(1grup)</t>
@@ -1573,7 +1660,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="5">
         <f>IF(D5="","",SUM(D6:D81))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="5">
         <f>IF(E5="","",SUM(E6:E81))</f>
@@ -1581,7 +1668,7 @@
       </c>
       <c r="F1" s="5">
         <f>IF(F5="","",SUM(F6:F81))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1" s="5" t="str">
         <f>IF(G5="","",SUM(G6:G81))</f>
@@ -1845,11 +1932,11 @@
       <c r="B3" s="4"/>
       <c r="C3" s="3">
         <f>SUM(D3:BA3)</f>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5">
         <f>IFERROR(D4/D2*D1,"")</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E3" s="5">
         <f>IFERROR(E4/E2*E1,"")</f>
@@ -1857,7 +1944,7 @@
       </c>
       <c r="F3" s="5">
         <f>IFERROR(F4/F2*F1,"")</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5" t="str">
         <f>IFERROR(G4/G2*G1,"")</f>
@@ -2055,7 +2142,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="3">
         <f>SUM(D4:BA4)</f>
-        <v>51</v>
+        <v>51.9</v>
       </c>
       <c r="D4" s="5">
         <v>9.0</v>
@@ -2064,7 +2151,7 @@
         <v>24.0</v>
       </c>
       <c r="F4" s="5">
-        <v>18.0</v>
+        <v>18.9</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -2191,16 +2278,16 @@
       </c>
       <c r="C6" s="8">
         <f>IF(A6="","",SUMPRODUCT(D6:BA6,$D$83:$BA$83))</f>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D6" s="9">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E6" s="9">
         <v>0.0</v>
       </c>
       <c r="F6" s="9">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -2290,18 +2377,26 @@
       <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:1025">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="str">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5">
         <f>IF(A8="","",SUM(D8:BA8))</f>
-        <v/>
-      </c>
-      <c r="C8" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
         <f>IF(A8="","",SUMPRODUCT(D8:BA8,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -2321,18 +2416,26 @@
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:1025">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="str">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5">
         <f>IF(A9="","",SUM(D9:BA9))</f>
-        <v/>
-      </c>
-      <c r="C9" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
         <f>IF(A9="","",SUMPRODUCT(D9:BA9,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -2352,18 +2455,26 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:1025">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="str">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
         <f>IF(A10="","",SUM(D10:BA10))</f>
-        <v/>
-      </c>
-      <c r="C10" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
         <f>IF(A10="","",SUMPRODUCT(D10:BA10,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -2383,18 +2494,26 @@
       <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:1025">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="str">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5">
         <f>IF(A11="","",SUM(D11:BA11))</f>
-        <v/>
-      </c>
-      <c r="C11" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
         <f>IF(A11="","",SUMPRODUCT(D11:BA11,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -2414,18 +2533,26 @@
       <c r="W11" s="9"/>
     </row>
     <row r="12" spans="1:1025">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="str">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5">
         <f>IF(A12="","",SUM(D12:BA12))</f>
-        <v/>
-      </c>
-      <c r="C12" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
         <f>IF(A12="","",SUMPRODUCT(D12:BA12,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -2445,18 +2572,26 @@
       <c r="W12" s="9"/>
     </row>
     <row r="13" spans="1:1025">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="str">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5">
         <f>IF(A13="","",SUM(D13:BA13))</f>
-        <v/>
-      </c>
-      <c r="C13" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8">
         <f>IF(A13="","",SUMPRODUCT(D13:BA13,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -2476,18 +2611,26 @@
       <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:1025">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="str">
+      <c r="A14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5">
         <f>IF(A14="","",SUM(D14:BA14))</f>
-        <v/>
-      </c>
-      <c r="C14" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8">
         <f>IF(A14="","",SUMPRODUCT(D14:BA14,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -2507,18 +2650,26 @@
       <c r="W14" s="9"/>
     </row>
     <row r="15" spans="1:1025">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="str">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
         <f>IF(A15="","",SUM(D15:BA15))</f>
-        <v/>
-      </c>
-      <c r="C15" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8">
         <f>IF(A15="","",SUMPRODUCT(D15:BA15,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -2538,18 +2689,26 @@
       <c r="W15" s="9"/>
     </row>
     <row r="16" spans="1:1025">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="str">
+      <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5">
         <f>IF(A16="","",SUM(D16:BA16))</f>
-        <v/>
-      </c>
-      <c r="C16" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8">
         <f>IF(A16="","",SUMPRODUCT(D16:BA16,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -2569,18 +2728,26 @@
       <c r="W16" s="9"/>
     </row>
     <row r="17" spans="1:1025">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="str">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="5">
         <f>IF(A17="","",SUM(D17:BA17))</f>
-        <v/>
-      </c>
-      <c r="C17" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8">
         <f>IF(A17="","",SUMPRODUCT(D17:BA17,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -2600,18 +2767,26 @@
       <c r="W17" s="9"/>
     </row>
     <row r="18" spans="1:1025">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="str">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5">
         <f>IF(A18="","",SUM(D18:BA18))</f>
-        <v/>
-      </c>
-      <c r="C18" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8">
         <f>IF(A18="","",SUMPRODUCT(D18:BA18,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -2631,18 +2806,26 @@
       <c r="W18" s="9"/>
     </row>
     <row r="19" spans="1:1025">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="str">
+      <c r="A19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="5">
         <f>IF(A19="","",SUM(D19:BA19))</f>
-        <v/>
-      </c>
-      <c r="C19" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8">
         <f>IF(A19="","",SUMPRODUCT(D19:BA19,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -2662,18 +2845,26 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:1025">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="str">
+      <c r="A20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="5">
         <f>IF(A20="","",SUM(D20:BA20))</f>
-        <v/>
-      </c>
-      <c r="C20" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
         <f>IF(A20="","",SUMPRODUCT(D20:BA20,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -2693,18 +2884,26 @@
       <c r="W20" s="9"/>
     </row>
     <row r="21" spans="1:1025">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="str">
+      <c r="A21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="5">
         <f>IF(A21="","",SUM(D21:BA21))</f>
-        <v/>
-      </c>
-      <c r="C21" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8">
         <f>IF(A21="","",SUMPRODUCT(D21:BA21,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -2724,18 +2923,26 @@
       <c r="W21" s="9"/>
     </row>
     <row r="22" spans="1:1025">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5" t="str">
+      <c r="A22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="5">
         <f>IF(A22="","",SUM(D22:BA22))</f>
-        <v/>
-      </c>
-      <c r="C22" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
         <f>IF(A22="","",SUMPRODUCT(D22:BA22,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -2755,18 +2962,26 @@
       <c r="W22" s="9"/>
     </row>
     <row r="23" spans="1:1025">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5" t="str">
+      <c r="A23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="5">
         <f>IF(A23="","",SUM(D23:BA23))</f>
-        <v/>
-      </c>
-      <c r="C23" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8">
         <f>IF(A23="","",SUMPRODUCT(D23:BA23,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -2786,18 +3001,26 @@
       <c r="W23" s="9"/>
     </row>
     <row r="24" spans="1:1025">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5" t="str">
+      <c r="A24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="5">
         <f>IF(A24="","",SUM(D24:BA24))</f>
-        <v/>
-      </c>
-      <c r="C24" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8">
         <f>IF(A24="","",SUMPRODUCT(D24:BA24,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -2817,18 +3040,26 @@
       <c r="W24" s="9"/>
     </row>
     <row r="25" spans="1:1025">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5" t="str">
+      <c r="A25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="5">
         <f>IF(A25="","",SUM(D25:BA25))</f>
-        <v/>
-      </c>
-      <c r="C25" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C25" s="8">
         <f>IF(A25="","",SUMPRODUCT(D25:BA25,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -2848,18 +3079,26 @@
       <c r="W25" s="9"/>
     </row>
     <row r="26" spans="1:1025">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5" t="str">
+      <c r="A26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="5">
         <f>IF(A26="","",SUM(D26:BA26))</f>
-        <v/>
-      </c>
-      <c r="C26" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C26" s="8">
         <f>IF(A26="","",SUMPRODUCT(D26:BA26,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -2879,18 +3118,26 @@
       <c r="W26" s="9"/>
     </row>
     <row r="27" spans="1:1025">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5" t="str">
+      <c r="A27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="5">
         <f>IF(A27="","",SUM(D27:BA27))</f>
-        <v/>
-      </c>
-      <c r="C27" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C27" s="8">
         <f>IF(A27="","",SUMPRODUCT(D27:BA27,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -2910,18 +3157,26 @@
       <c r="W27" s="9"/>
     </row>
     <row r="28" spans="1:1025">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5" t="str">
+      <c r="A28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5">
         <f>IF(A28="","",SUM(D28:BA28))</f>
-        <v/>
-      </c>
-      <c r="C28" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8">
         <f>IF(A28="","",SUMPRODUCT(D28:BA28,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -2941,18 +3196,26 @@
       <c r="W28" s="9"/>
     </row>
     <row r="29" spans="1:1025">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5" t="str">
+      <c r="A29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="5">
         <f>IF(A29="","",SUM(D29:BA29))</f>
-        <v/>
-      </c>
-      <c r="C29" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C29" s="8">
         <f>IF(A29="","",SUMPRODUCT(D29:BA29,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -2972,18 +3235,26 @@
       <c r="W29" s="9"/>
     </row>
     <row r="30" spans="1:1025">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5" t="str">
+      <c r="A30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="5">
         <f>IF(A30="","",SUM(D30:BA30))</f>
-        <v/>
-      </c>
-      <c r="C30" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C30" s="8">
         <f>IF(A30="","",SUMPRODUCT(D30:BA30,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -3003,18 +3274,26 @@
       <c r="W30" s="9"/>
     </row>
     <row r="31" spans="1:1025">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5" t="str">
+      <c r="A31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="5">
         <f>IF(A31="","",SUM(D31:BA31))</f>
-        <v/>
-      </c>
-      <c r="C31" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C31" s="8">
         <f>IF(A31="","",SUMPRODUCT(D31:BA31,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -3034,18 +3313,26 @@
       <c r="W31" s="9"/>
     </row>
     <row r="32" spans="1:1025">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5" t="str">
+      <c r="A32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="5">
         <f>IF(A32="","",SUM(D32:BA32))</f>
-        <v/>
-      </c>
-      <c r="C32" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C32" s="8">
         <f>IF(A32="","",SUMPRODUCT(D32:BA32,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
@@ -3065,18 +3352,26 @@
       <c r="W32" s="9"/>
     </row>
     <row r="33" spans="1:1025">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5" t="str">
+      <c r="A33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="5">
         <f>IF(A33="","",SUM(D33:BA33))</f>
-        <v/>
-      </c>
-      <c r="C33" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C33" s="8">
         <f>IF(A33="","",SUMPRODUCT(D33:BA33,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
@@ -3096,18 +3391,26 @@
       <c r="W33" s="9"/>
     </row>
     <row r="34" spans="1:1025">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5" t="str">
+      <c r="A34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="5">
         <f>IF(A34="","",SUM(D34:BA34))</f>
-        <v/>
-      </c>
-      <c r="C34" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C34" s="8">
         <f>IF(A34="","",SUMPRODUCT(D34:BA34,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F34" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -3127,18 +3430,26 @@
       <c r="W34" s="9"/>
     </row>
     <row r="35" spans="1:1025">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5" t="str">
+      <c r="A35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="5">
         <f>IF(A35="","",SUM(D35:BA35))</f>
-        <v/>
-      </c>
-      <c r="C35" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C35" s="8">
         <f>IF(A35="","",SUMPRODUCT(D35:BA35,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F35" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -3158,18 +3469,26 @@
       <c r="W35" s="9"/>
     </row>
     <row r="36" spans="1:1025">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5" t="str">
+      <c r="A36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5">
         <f>IF(A36="","",SUM(D36:BA36))</f>
-        <v/>
-      </c>
-      <c r="C36" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C36" s="8">
         <f>IF(A36="","",SUMPRODUCT(D36:BA36,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F36" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -3189,18 +3508,26 @@
       <c r="W36" s="9"/>
     </row>
     <row r="37" spans="1:1025">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5" t="str">
+      <c r="A37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5">
         <f>IF(A37="","",SUM(D37:BA37))</f>
-        <v/>
-      </c>
-      <c r="C37" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C37" s="8">
         <f>IF(A37="","",SUMPRODUCT(D37:BA37,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
@@ -3220,18 +3547,26 @@
       <c r="W37" s="9"/>
     </row>
     <row r="38" spans="1:1025">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5" t="str">
+      <c r="A38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="5">
         <f>IF(A38="","",SUM(D38:BA38))</f>
-        <v/>
-      </c>
-      <c r="C38" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C38" s="8">
         <f>IF(A38="","",SUMPRODUCT(D38:BA38,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F38" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -3251,18 +3586,26 @@
       <c r="W38" s="9"/>
     </row>
     <row r="39" spans="1:1025">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5" t="str">
+      <c r="A39" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5">
         <f>IF(A39="","",SUM(D39:BA39))</f>
-        <v/>
-      </c>
-      <c r="C39" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C39" s="8">
         <f>IF(A39="","",SUMPRODUCT(D39:BA39,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F39" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
@@ -3282,18 +3625,26 @@
       <c r="W39" s="9"/>
     </row>
     <row r="40" spans="1:1025">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5" t="str">
+      <c r="A40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="5">
         <f>IF(A40="","",SUM(D40:BA40))</f>
-        <v/>
-      </c>
-      <c r="C40" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C40" s="8">
         <f>IF(A40="","",SUMPRODUCT(D40:BA40,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F40" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -3313,18 +3664,26 @@
       <c r="W40" s="9"/>
     </row>
     <row r="41" spans="1:1025">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5" t="str">
+      <c r="A41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="5">
         <f>IF(A41="","",SUM(D41:BA41))</f>
-        <v/>
-      </c>
-      <c r="C41" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C41" s="8">
         <f>IF(A41="","",SUMPRODUCT(D41:BA41,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F41" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
@@ -3344,18 +3703,26 @@
       <c r="W41" s="9"/>
     </row>
     <row r="42" spans="1:1025">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5" t="str">
+      <c r="A42" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="5">
         <f>IF(A42="","",SUM(D42:BA42))</f>
-        <v/>
-      </c>
-      <c r="C42" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C42" s="8">
         <f>IF(A42="","",SUMPRODUCT(D42:BA42,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F42" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -3375,18 +3742,26 @@
       <c r="W42" s="9"/>
     </row>
     <row r="43" spans="1:1025">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5" t="str">
+      <c r="A43" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="5">
         <f>IF(A43="","",SUM(D43:BA43))</f>
-        <v/>
-      </c>
-      <c r="C43" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C43" s="8">
         <f>IF(A43="","",SUMPRODUCT(D43:BA43,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
@@ -3406,18 +3781,26 @@
       <c r="W43" s="9"/>
     </row>
     <row r="44" spans="1:1025">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5" t="str">
+      <c r="A44" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="5">
         <f>IF(A44="","",SUM(D44:BA44))</f>
-        <v/>
-      </c>
-      <c r="C44" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C44" s="8">
         <f>IF(A44="","",SUMPRODUCT(D44:BA44,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F44" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
@@ -4351,7 +4734,7 @@
     </row>
     <row r="83" spans="1:1025" hidden="true">
       <c r="A83" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D83" s="1">
         <f>IF(D5="","",D4/D2)</f>
@@ -4363,7 +4746,7 @@
       </c>
       <c r="F83" s="1">
         <f>IF(F5="","",F4/F2)</f>
-        <v>18</v>
+        <v>18.9</v>
       </c>
       <c r="G83" s="1" t="str">
         <f>IF(G5="","",G4/G2)</f>
@@ -5792,12 +6175,12 @@
       </c>
       <c r="B1" s="3">
         <f>SUM(D1:BA1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5">
         <f>IF(D5="","",SUM(D6:D81))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="5" t="str">
         <f>IF(E5="","",SUM(E6:E81))</f>
@@ -6065,11 +6448,11 @@
       <c r="B3" s="4"/>
       <c r="C3" s="3">
         <f>SUM(D3:BA3)</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5">
         <f>IFERROR(D4/D2*D1,"")</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E3" s="5" t="str">
         <f>IFERROR(E4/E2*E1,"")</f>
@@ -6399,14 +6782,14 @@
       </c>
       <c r="B6" s="5">
         <f>IF(A6="","",SUM(D6:BA6))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="8">
         <f>IF(A6="","",SUMPRODUCT(D6:BA6,D83:BA83))</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D6" s="9">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -6494,16 +6877,20 @@
       <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:1025">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="str">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5">
         <f>IF(A8="","",SUM(D8:BA8))</f>
-        <v/>
-      </c>
-      <c r="C8" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
         <f>IF(A8="","",SUMPRODUCT(D8:BA8,D85:BA85))</f>
-        <v/>
-      </c>
-      <c r="D8" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -6525,16 +6912,20 @@
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:1025">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="str">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5">
         <f>IF(A9="","",SUM(D9:BA9))</f>
-        <v/>
-      </c>
-      <c r="C9" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
         <f>IF(A9="","",SUMPRODUCT(D9:BA9,D86:BA86))</f>
-        <v/>
-      </c>
-      <c r="D9" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -6556,16 +6947,20 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:1025">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="str">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
         <f>IF(A10="","",SUM(D10:BA10))</f>
-        <v/>
-      </c>
-      <c r="C10" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
         <f>IF(A10="","",SUMPRODUCT(D10:BA10,D87:BA87))</f>
-        <v/>
-      </c>
-      <c r="D10" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -6587,16 +6982,20 @@
       <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:1025">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="str">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5">
         <f>IF(A11="","",SUM(D11:BA11))</f>
-        <v/>
-      </c>
-      <c r="C11" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
         <f>IF(A11="","",SUMPRODUCT(D11:BA11,D88:BA88))</f>
-        <v/>
-      </c>
-      <c r="D11" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -6618,16 +7017,20 @@
       <c r="W11" s="9"/>
     </row>
     <row r="12" spans="1:1025">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="str">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5">
         <f>IF(A12="","",SUM(D12:BA12))</f>
-        <v/>
-      </c>
-      <c r="C12" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
         <f>IF(A12="","",SUMPRODUCT(D12:BA12,D89:BA89))</f>
-        <v/>
-      </c>
-      <c r="D12" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -6649,16 +7052,20 @@
       <c r="W12" s="9"/>
     </row>
     <row r="13" spans="1:1025">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="str">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5">
         <f>IF(A13="","",SUM(D13:BA13))</f>
-        <v/>
-      </c>
-      <c r="C13" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8">
         <f>IF(A13="","",SUMPRODUCT(D13:BA13,D90:BA90))</f>
-        <v/>
-      </c>
-      <c r="D13" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -6680,16 +7087,20 @@
       <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:1025">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="str">
+      <c r="A14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5">
         <f>IF(A14="","",SUM(D14:BA14))</f>
-        <v/>
-      </c>
-      <c r="C14" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8">
         <f>IF(A14="","",SUMPRODUCT(D14:BA14,D91:BA91))</f>
-        <v/>
-      </c>
-      <c r="D14" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -6711,16 +7122,20 @@
       <c r="W14" s="9"/>
     </row>
     <row r="15" spans="1:1025">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="str">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
         <f>IF(A15="","",SUM(D15:BA15))</f>
-        <v/>
-      </c>
-      <c r="C15" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8">
         <f>IF(A15="","",SUMPRODUCT(D15:BA15,D92:BA92))</f>
-        <v/>
-      </c>
-      <c r="D15" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -6742,16 +7157,20 @@
       <c r="W15" s="9"/>
     </row>
     <row r="16" spans="1:1025">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="str">
+      <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5">
         <f>IF(A16="","",SUM(D16:BA16))</f>
-        <v/>
-      </c>
-      <c r="C16" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8">
         <f>IF(A16="","",SUMPRODUCT(D16:BA16,D93:BA93))</f>
-        <v/>
-      </c>
-      <c r="D16" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -6773,16 +7192,20 @@
       <c r="W16" s="9"/>
     </row>
     <row r="17" spans="1:1025">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="str">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="5">
         <f>IF(A17="","",SUM(D17:BA17))</f>
-        <v/>
-      </c>
-      <c r="C17" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8">
         <f>IF(A17="","",SUMPRODUCT(D17:BA17,D94:BA94))</f>
-        <v/>
-      </c>
-      <c r="D17" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -6804,16 +7227,20 @@
       <c r="W17" s="9"/>
     </row>
     <row r="18" spans="1:1025">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="str">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5">
         <f>IF(A18="","",SUM(D18:BA18))</f>
-        <v/>
-      </c>
-      <c r="C18" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8">
         <f>IF(A18="","",SUMPRODUCT(D18:BA18,D95:BA95))</f>
-        <v/>
-      </c>
-      <c r="D18" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -6835,16 +7262,20 @@
       <c r="W18" s="9"/>
     </row>
     <row r="19" spans="1:1025">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="str">
+      <c r="A19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="5">
         <f>IF(A19="","",SUM(D19:BA19))</f>
-        <v/>
-      </c>
-      <c r="C19" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8">
         <f>IF(A19="","",SUMPRODUCT(D19:BA19,D96:BA96))</f>
-        <v/>
-      </c>
-      <c r="D19" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -6866,16 +7297,20 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:1025">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="str">
+      <c r="A20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="5">
         <f>IF(A20="","",SUM(D20:BA20))</f>
-        <v/>
-      </c>
-      <c r="C20" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
         <f>IF(A20="","",SUMPRODUCT(D20:BA20,D97:BA97))</f>
-        <v/>
-      </c>
-      <c r="D20" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -6897,16 +7332,20 @@
       <c r="W20" s="9"/>
     </row>
     <row r="21" spans="1:1025">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="str">
+      <c r="A21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="5">
         <f>IF(A21="","",SUM(D21:BA21))</f>
-        <v/>
-      </c>
-      <c r="C21" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8">
         <f>IF(A21="","",SUMPRODUCT(D21:BA21,D98:BA98))</f>
-        <v/>
-      </c>
-      <c r="D21" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -6928,16 +7367,20 @@
       <c r="W21" s="9"/>
     </row>
     <row r="22" spans="1:1025">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5" t="str">
+      <c r="A22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="5">
         <f>IF(A22="","",SUM(D22:BA22))</f>
-        <v/>
-      </c>
-      <c r="C22" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
         <f>IF(A22="","",SUMPRODUCT(D22:BA22,D99:BA99))</f>
-        <v/>
-      </c>
-      <c r="D22" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -6959,16 +7402,20 @@
       <c r="W22" s="9"/>
     </row>
     <row r="23" spans="1:1025">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5" t="str">
+      <c r="A23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="5">
         <f>IF(A23="","",SUM(D23:BA23))</f>
-        <v/>
-      </c>
-      <c r="C23" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8">
         <f>IF(A23="","",SUMPRODUCT(D23:BA23,D100:BA100))</f>
-        <v/>
-      </c>
-      <c r="D23" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -6990,16 +7437,20 @@
       <c r="W23" s="9"/>
     </row>
     <row r="24" spans="1:1025">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5" t="str">
+      <c r="A24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="5">
         <f>IF(A24="","",SUM(D24:BA24))</f>
-        <v/>
-      </c>
-      <c r="C24" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8">
         <f>IF(A24="","",SUMPRODUCT(D24:BA24,D101:BA101))</f>
-        <v/>
-      </c>
-      <c r="D24" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -7021,16 +7472,20 @@
       <c r="W24" s="9"/>
     </row>
     <row r="25" spans="1:1025">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5" t="str">
+      <c r="A25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="5">
         <f>IF(A25="","",SUM(D25:BA25))</f>
-        <v/>
-      </c>
-      <c r="C25" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C25" s="8">
         <f>IF(A25="","",SUMPRODUCT(D25:BA25,D102:BA102))</f>
-        <v/>
-      </c>
-      <c r="D25" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -7052,16 +7507,20 @@
       <c r="W25" s="9"/>
     </row>
     <row r="26" spans="1:1025">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5" t="str">
+      <c r="A26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="5">
         <f>IF(A26="","",SUM(D26:BA26))</f>
-        <v/>
-      </c>
-      <c r="C26" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C26" s="8">
         <f>IF(A26="","",SUMPRODUCT(D26:BA26,D103:BA103))</f>
-        <v/>
-      </c>
-      <c r="D26" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -7083,16 +7542,20 @@
       <c r="W26" s="9"/>
     </row>
     <row r="27" spans="1:1025">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5" t="str">
+      <c r="A27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="5">
         <f>IF(A27="","",SUM(D27:BA27))</f>
-        <v/>
-      </c>
-      <c r="C27" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C27" s="8">
         <f>IF(A27="","",SUMPRODUCT(D27:BA27,D104:BA104))</f>
-        <v/>
-      </c>
-      <c r="D27" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -7114,16 +7577,20 @@
       <c r="W27" s="9"/>
     </row>
     <row r="28" spans="1:1025">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5" t="str">
+      <c r="A28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5">
         <f>IF(A28="","",SUM(D28:BA28))</f>
-        <v/>
-      </c>
-      <c r="C28" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8">
         <f>IF(A28="","",SUMPRODUCT(D28:BA28,D105:BA105))</f>
-        <v/>
-      </c>
-      <c r="D28" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -7145,16 +7612,20 @@
       <c r="W28" s="9"/>
     </row>
     <row r="29" spans="1:1025">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5" t="str">
+      <c r="A29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="5">
         <f>IF(A29="","",SUM(D29:BA29))</f>
-        <v/>
-      </c>
-      <c r="C29" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C29" s="8">
         <f>IF(A29="","",SUMPRODUCT(D29:BA29,D106:BA106))</f>
-        <v/>
-      </c>
-      <c r="D29" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -7176,16 +7647,20 @@
       <c r="W29" s="9"/>
     </row>
     <row r="30" spans="1:1025">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5" t="str">
+      <c r="A30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="5">
         <f>IF(A30="","",SUM(D30:BA30))</f>
-        <v/>
-      </c>
-      <c r="C30" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C30" s="8">
         <f>IF(A30="","",SUMPRODUCT(D30:BA30,D107:BA107))</f>
-        <v/>
-      </c>
-      <c r="D30" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -7207,16 +7682,20 @@
       <c r="W30" s="9"/>
     </row>
     <row r="31" spans="1:1025">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5" t="str">
+      <c r="A31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="5">
         <f>IF(A31="","",SUM(D31:BA31))</f>
-        <v/>
-      </c>
-      <c r="C31" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C31" s="8">
         <f>IF(A31="","",SUMPRODUCT(D31:BA31,D108:BA108))</f>
-        <v/>
-      </c>
-      <c r="D31" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -7238,16 +7717,20 @@
       <c r="W31" s="9"/>
     </row>
     <row r="32" spans="1:1025">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5" t="str">
+      <c r="A32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="5">
         <f>IF(A32="","",SUM(D32:BA32))</f>
-        <v/>
-      </c>
-      <c r="C32" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C32" s="8">
         <f>IF(A32="","",SUMPRODUCT(D32:BA32,D109:BA109))</f>
-        <v/>
-      </c>
-      <c r="D32" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -7269,16 +7752,20 @@
       <c r="W32" s="9"/>
     </row>
     <row r="33" spans="1:1025">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5" t="str">
+      <c r="A33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="5">
         <f>IF(A33="","",SUM(D33:BA33))</f>
-        <v/>
-      </c>
-      <c r="C33" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C33" s="8">
         <f>IF(A33="","",SUMPRODUCT(D33:BA33,D110:BA110))</f>
-        <v/>
-      </c>
-      <c r="D33" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -7300,16 +7787,20 @@
       <c r="W33" s="9"/>
     </row>
     <row r="34" spans="1:1025">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5" t="str">
+      <c r="A34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="5">
         <f>IF(A34="","",SUM(D34:BA34))</f>
-        <v/>
-      </c>
-      <c r="C34" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C34" s="8">
         <f>IF(A34="","",SUMPRODUCT(D34:BA34,D111:BA111))</f>
-        <v/>
-      </c>
-      <c r="D34" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -7331,16 +7822,20 @@
       <c r="W34" s="9"/>
     </row>
     <row r="35" spans="1:1025">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5" t="str">
+      <c r="A35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="5">
         <f>IF(A35="","",SUM(D35:BA35))</f>
-        <v/>
-      </c>
-      <c r="C35" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C35" s="8">
         <f>IF(A35="","",SUMPRODUCT(D35:BA35,D112:BA112))</f>
-        <v/>
-      </c>
-      <c r="D35" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
@@ -7362,16 +7857,20 @@
       <c r="W35" s="9"/>
     </row>
     <row r="36" spans="1:1025">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5" t="str">
+      <c r="A36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5">
         <f>IF(A36="","",SUM(D36:BA36))</f>
-        <v/>
-      </c>
-      <c r="C36" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C36" s="8">
         <f>IF(A36="","",SUMPRODUCT(D36:BA36,D113:BA113))</f>
-        <v/>
-      </c>
-      <c r="D36" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
@@ -7393,16 +7892,20 @@
       <c r="W36" s="9"/>
     </row>
     <row r="37" spans="1:1025">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5" t="str">
+      <c r="A37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5">
         <f>IF(A37="","",SUM(D37:BA37))</f>
-        <v/>
-      </c>
-      <c r="C37" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C37" s="8">
         <f>IF(A37="","",SUMPRODUCT(D37:BA37,D114:BA114))</f>
-        <v/>
-      </c>
-      <c r="D37" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
@@ -7424,16 +7927,20 @@
       <c r="W37" s="9"/>
     </row>
     <row r="38" spans="1:1025">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5" t="str">
+      <c r="A38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="5">
         <f>IF(A38="","",SUM(D38:BA38))</f>
-        <v/>
-      </c>
-      <c r="C38" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C38" s="8">
         <f>IF(A38="","",SUMPRODUCT(D38:BA38,D115:BA115))</f>
-        <v/>
-      </c>
-      <c r="D38" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -7455,16 +7962,20 @@
       <c r="W38" s="9"/>
     </row>
     <row r="39" spans="1:1025">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5" t="str">
+      <c r="A39" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5">
         <f>IF(A39="","",SUM(D39:BA39))</f>
-        <v/>
-      </c>
-      <c r="C39" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C39" s="8">
         <f>IF(A39="","",SUMPRODUCT(D39:BA39,D116:BA116))</f>
-        <v/>
-      </c>
-      <c r="D39" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
@@ -7486,16 +7997,20 @@
       <c r="W39" s="9"/>
     </row>
     <row r="40" spans="1:1025">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5" t="str">
+      <c r="A40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="5">
         <f>IF(A40="","",SUM(D40:BA40))</f>
-        <v/>
-      </c>
-      <c r="C40" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C40" s="8">
         <f>IF(A40="","",SUMPRODUCT(D40:BA40,D117:BA117))</f>
-        <v/>
-      </c>
-      <c r="D40" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
@@ -7517,16 +8032,20 @@
       <c r="W40" s="9"/>
     </row>
     <row r="41" spans="1:1025">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5" t="str">
+      <c r="A41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="5">
         <f>IF(A41="","",SUM(D41:BA41))</f>
-        <v/>
-      </c>
-      <c r="C41" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C41" s="8">
         <f>IF(A41="","",SUMPRODUCT(D41:BA41,D118:BA118))</f>
-        <v/>
-      </c>
-      <c r="D41" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -7548,16 +8067,20 @@
       <c r="W41" s="9"/>
     </row>
     <row r="42" spans="1:1025">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5" t="str">
+      <c r="A42" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="5">
         <f>IF(A42="","",SUM(D42:BA42))</f>
-        <v/>
-      </c>
-      <c r="C42" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C42" s="8">
         <f>IF(A42="","",SUMPRODUCT(D42:BA42,D119:BA119))</f>
-        <v/>
-      </c>
-      <c r="D42" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -7579,16 +8102,20 @@
       <c r="W42" s="9"/>
     </row>
     <row r="43" spans="1:1025">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5" t="str">
+      <c r="A43" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="5">
         <f>IF(A43="","",SUM(D43:BA43))</f>
-        <v/>
-      </c>
-      <c r="C43" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C43" s="8">
         <f>IF(A43="","",SUMPRODUCT(D43:BA43,D120:BA120))</f>
-        <v/>
-      </c>
-      <c r="D43" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
@@ -7610,16 +8137,20 @@
       <c r="W43" s="9"/>
     </row>
     <row r="44" spans="1:1025">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5" t="str">
+      <c r="A44" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="5">
         <f>IF(A44="","",SUM(D44:BA44))</f>
-        <v/>
-      </c>
-      <c r="C44" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C44" s="8">
         <f>IF(A44="","",SUMPRODUCT(D44:BA44,D121:BA121))</f>
-        <v/>
-      </c>
-      <c r="D44" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -8555,7 +9086,7 @@
     </row>
     <row r="83" spans="1:1025" hidden="true">
       <c r="A83" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D83" s="1">
         <f>IF(D5="","",D4/D2)</f>
@@ -10698,16 +11229,20 @@
       <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:1025">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="str">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5">
         <f>IF(A8="","",SUM(D8:BA8))</f>
-        <v/>
-      </c>
-      <c r="C8" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
         <f>IF(A8="","",SUMPRODUCT(D8:BA8,D85:BA85))</f>
-        <v/>
-      </c>
-      <c r="D8" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -10729,16 +11264,20 @@
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:1025">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="str">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5">
         <f>IF(A9="","",SUM(D9:BA9))</f>
-        <v/>
-      </c>
-      <c r="C9" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
         <f>IF(A9="","",SUMPRODUCT(D9:BA9,D86:BA86))</f>
-        <v/>
-      </c>
-      <c r="D9" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -10760,16 +11299,20 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:1025">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="str">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
         <f>IF(A10="","",SUM(D10:BA10))</f>
-        <v/>
-      </c>
-      <c r="C10" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
         <f>IF(A10="","",SUMPRODUCT(D10:BA10,D87:BA87))</f>
-        <v/>
-      </c>
-      <c r="D10" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -10791,16 +11334,20 @@
       <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:1025">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="str">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5">
         <f>IF(A11="","",SUM(D11:BA11))</f>
-        <v/>
-      </c>
-      <c r="C11" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
         <f>IF(A11="","",SUMPRODUCT(D11:BA11,D88:BA88))</f>
-        <v/>
-      </c>
-      <c r="D11" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -10822,16 +11369,20 @@
       <c r="W11" s="9"/>
     </row>
     <row r="12" spans="1:1025">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="str">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5">
         <f>IF(A12="","",SUM(D12:BA12))</f>
-        <v/>
-      </c>
-      <c r="C12" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
         <f>IF(A12="","",SUMPRODUCT(D12:BA12,D89:BA89))</f>
-        <v/>
-      </c>
-      <c r="D12" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -10853,16 +11404,20 @@
       <c r="W12" s="9"/>
     </row>
     <row r="13" spans="1:1025">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="str">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5">
         <f>IF(A13="","",SUM(D13:BA13))</f>
-        <v/>
-      </c>
-      <c r="C13" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8">
         <f>IF(A13="","",SUMPRODUCT(D13:BA13,D90:BA90))</f>
-        <v/>
-      </c>
-      <c r="D13" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -10884,16 +11439,20 @@
       <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:1025">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="str">
+      <c r="A14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5">
         <f>IF(A14="","",SUM(D14:BA14))</f>
-        <v/>
-      </c>
-      <c r="C14" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8">
         <f>IF(A14="","",SUMPRODUCT(D14:BA14,D91:BA91))</f>
-        <v/>
-      </c>
-      <c r="D14" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -10915,16 +11474,20 @@
       <c r="W14" s="9"/>
     </row>
     <row r="15" spans="1:1025">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="str">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
         <f>IF(A15="","",SUM(D15:BA15))</f>
-        <v/>
-      </c>
-      <c r="C15" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8">
         <f>IF(A15="","",SUMPRODUCT(D15:BA15,D92:BA92))</f>
-        <v/>
-      </c>
-      <c r="D15" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -10946,16 +11509,20 @@
       <c r="W15" s="9"/>
     </row>
     <row r="16" spans="1:1025">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="str">
+      <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5">
         <f>IF(A16="","",SUM(D16:BA16))</f>
-        <v/>
-      </c>
-      <c r="C16" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8">
         <f>IF(A16="","",SUMPRODUCT(D16:BA16,D93:BA93))</f>
-        <v/>
-      </c>
-      <c r="D16" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -10977,16 +11544,20 @@
       <c r="W16" s="9"/>
     </row>
     <row r="17" spans="1:1025">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="str">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="5">
         <f>IF(A17="","",SUM(D17:BA17))</f>
-        <v/>
-      </c>
-      <c r="C17" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8">
         <f>IF(A17="","",SUMPRODUCT(D17:BA17,D94:BA94))</f>
-        <v/>
-      </c>
-      <c r="D17" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -11008,16 +11579,20 @@
       <c r="W17" s="9"/>
     </row>
     <row r="18" spans="1:1025">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="str">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5">
         <f>IF(A18="","",SUM(D18:BA18))</f>
-        <v/>
-      </c>
-      <c r="C18" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8">
         <f>IF(A18="","",SUMPRODUCT(D18:BA18,D95:BA95))</f>
-        <v/>
-      </c>
-      <c r="D18" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -11039,16 +11614,20 @@
       <c r="W18" s="9"/>
     </row>
     <row r="19" spans="1:1025">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="str">
+      <c r="A19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="5">
         <f>IF(A19="","",SUM(D19:BA19))</f>
-        <v/>
-      </c>
-      <c r="C19" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8">
         <f>IF(A19="","",SUMPRODUCT(D19:BA19,D96:BA96))</f>
-        <v/>
-      </c>
-      <c r="D19" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -11070,16 +11649,20 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:1025">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="str">
+      <c r="A20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="5">
         <f>IF(A20="","",SUM(D20:BA20))</f>
-        <v/>
-      </c>
-      <c r="C20" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
         <f>IF(A20="","",SUMPRODUCT(D20:BA20,D97:BA97))</f>
-        <v/>
-      </c>
-      <c r="D20" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -11101,16 +11684,20 @@
       <c r="W20" s="9"/>
     </row>
     <row r="21" spans="1:1025">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="str">
+      <c r="A21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="5">
         <f>IF(A21="","",SUM(D21:BA21))</f>
-        <v/>
-      </c>
-      <c r="C21" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8">
         <f>IF(A21="","",SUMPRODUCT(D21:BA21,D98:BA98))</f>
-        <v/>
-      </c>
-      <c r="D21" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -11132,16 +11719,20 @@
       <c r="W21" s="9"/>
     </row>
     <row r="22" spans="1:1025">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5" t="str">
+      <c r="A22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="5">
         <f>IF(A22="","",SUM(D22:BA22))</f>
-        <v/>
-      </c>
-      <c r="C22" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
         <f>IF(A22="","",SUMPRODUCT(D22:BA22,D99:BA99))</f>
-        <v/>
-      </c>
-      <c r="D22" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -11163,16 +11754,20 @@
       <c r="W22" s="9"/>
     </row>
     <row r="23" spans="1:1025">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5" t="str">
+      <c r="A23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="5">
         <f>IF(A23="","",SUM(D23:BA23))</f>
-        <v/>
-      </c>
-      <c r="C23" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8">
         <f>IF(A23="","",SUMPRODUCT(D23:BA23,D100:BA100))</f>
-        <v/>
-      </c>
-      <c r="D23" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -11194,16 +11789,20 @@
       <c r="W23" s="9"/>
     </row>
     <row r="24" spans="1:1025">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5" t="str">
+      <c r="A24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="5">
         <f>IF(A24="","",SUM(D24:BA24))</f>
-        <v/>
-      </c>
-      <c r="C24" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8">
         <f>IF(A24="","",SUMPRODUCT(D24:BA24,D101:BA101))</f>
-        <v/>
-      </c>
-      <c r="D24" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -11225,16 +11824,20 @@
       <c r="W24" s="9"/>
     </row>
     <row r="25" spans="1:1025">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5" t="str">
+      <c r="A25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="5">
         <f>IF(A25="","",SUM(D25:BA25))</f>
-        <v/>
-      </c>
-      <c r="C25" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C25" s="8">
         <f>IF(A25="","",SUMPRODUCT(D25:BA25,D102:BA102))</f>
-        <v/>
-      </c>
-      <c r="D25" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -11256,16 +11859,20 @@
       <c r="W25" s="9"/>
     </row>
     <row r="26" spans="1:1025">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5" t="str">
+      <c r="A26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="5">
         <f>IF(A26="","",SUM(D26:BA26))</f>
-        <v/>
-      </c>
-      <c r="C26" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C26" s="8">
         <f>IF(A26="","",SUMPRODUCT(D26:BA26,D103:BA103))</f>
-        <v/>
-      </c>
-      <c r="D26" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -11287,16 +11894,20 @@
       <c r="W26" s="9"/>
     </row>
     <row r="27" spans="1:1025">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5" t="str">
+      <c r="A27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="5">
         <f>IF(A27="","",SUM(D27:BA27))</f>
-        <v/>
-      </c>
-      <c r="C27" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C27" s="8">
         <f>IF(A27="","",SUMPRODUCT(D27:BA27,D104:BA104))</f>
-        <v/>
-      </c>
-      <c r="D27" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -11318,16 +11929,20 @@
       <c r="W27" s="9"/>
     </row>
     <row r="28" spans="1:1025">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5" t="str">
+      <c r="A28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5">
         <f>IF(A28="","",SUM(D28:BA28))</f>
-        <v/>
-      </c>
-      <c r="C28" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8">
         <f>IF(A28="","",SUMPRODUCT(D28:BA28,D105:BA105))</f>
-        <v/>
-      </c>
-      <c r="D28" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -11349,16 +11964,20 @@
       <c r="W28" s="9"/>
     </row>
     <row r="29" spans="1:1025">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5" t="str">
+      <c r="A29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="5">
         <f>IF(A29="","",SUM(D29:BA29))</f>
-        <v/>
-      </c>
-      <c r="C29" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C29" s="8">
         <f>IF(A29="","",SUMPRODUCT(D29:BA29,D106:BA106))</f>
-        <v/>
-      </c>
-      <c r="D29" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -11380,16 +11999,20 @@
       <c r="W29" s="9"/>
     </row>
     <row r="30" spans="1:1025">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5" t="str">
+      <c r="A30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="5">
         <f>IF(A30="","",SUM(D30:BA30))</f>
-        <v/>
-      </c>
-      <c r="C30" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C30" s="8">
         <f>IF(A30="","",SUMPRODUCT(D30:BA30,D107:BA107))</f>
-        <v/>
-      </c>
-      <c r="D30" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -11411,16 +12034,20 @@
       <c r="W30" s="9"/>
     </row>
     <row r="31" spans="1:1025">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5" t="str">
+      <c r="A31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="5">
         <f>IF(A31="","",SUM(D31:BA31))</f>
-        <v/>
-      </c>
-      <c r="C31" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C31" s="8">
         <f>IF(A31="","",SUMPRODUCT(D31:BA31,D108:BA108))</f>
-        <v/>
-      </c>
-      <c r="D31" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -11442,16 +12069,20 @@
       <c r="W31" s="9"/>
     </row>
     <row r="32" spans="1:1025">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5" t="str">
+      <c r="A32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="5">
         <f>IF(A32="","",SUM(D32:BA32))</f>
-        <v/>
-      </c>
-      <c r="C32" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C32" s="8">
         <f>IF(A32="","",SUMPRODUCT(D32:BA32,D109:BA109))</f>
-        <v/>
-      </c>
-      <c r="D32" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -11473,16 +12104,20 @@
       <c r="W32" s="9"/>
     </row>
     <row r="33" spans="1:1025">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5" t="str">
+      <c r="A33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="5">
         <f>IF(A33="","",SUM(D33:BA33))</f>
-        <v/>
-      </c>
-      <c r="C33" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C33" s="8">
         <f>IF(A33="","",SUMPRODUCT(D33:BA33,D110:BA110))</f>
-        <v/>
-      </c>
-      <c r="D33" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -11504,16 +12139,20 @@
       <c r="W33" s="9"/>
     </row>
     <row r="34" spans="1:1025">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5" t="str">
+      <c r="A34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="5">
         <f>IF(A34="","",SUM(D34:BA34))</f>
-        <v/>
-      </c>
-      <c r="C34" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C34" s="8">
         <f>IF(A34="","",SUMPRODUCT(D34:BA34,D111:BA111))</f>
-        <v/>
-      </c>
-      <c r="D34" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -11535,16 +12174,20 @@
       <c r="W34" s="9"/>
     </row>
     <row r="35" spans="1:1025">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5" t="str">
+      <c r="A35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="5">
         <f>IF(A35="","",SUM(D35:BA35))</f>
-        <v/>
-      </c>
-      <c r="C35" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C35" s="8">
         <f>IF(A35="","",SUMPRODUCT(D35:BA35,D112:BA112))</f>
-        <v/>
-      </c>
-      <c r="D35" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
@@ -11566,16 +12209,20 @@
       <c r="W35" s="9"/>
     </row>
     <row r="36" spans="1:1025">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5" t="str">
+      <c r="A36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5">
         <f>IF(A36="","",SUM(D36:BA36))</f>
-        <v/>
-      </c>
-      <c r="C36" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C36" s="8">
         <f>IF(A36="","",SUMPRODUCT(D36:BA36,D113:BA113))</f>
-        <v/>
-      </c>
-      <c r="D36" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
@@ -11597,16 +12244,20 @@
       <c r="W36" s="9"/>
     </row>
     <row r="37" spans="1:1025">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5" t="str">
+      <c r="A37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5">
         <f>IF(A37="","",SUM(D37:BA37))</f>
-        <v/>
-      </c>
-      <c r="C37" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C37" s="8">
         <f>IF(A37="","",SUMPRODUCT(D37:BA37,D114:BA114))</f>
-        <v/>
-      </c>
-      <c r="D37" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
@@ -11628,16 +12279,20 @@
       <c r="W37" s="9"/>
     </row>
     <row r="38" spans="1:1025">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5" t="str">
+      <c r="A38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="5">
         <f>IF(A38="","",SUM(D38:BA38))</f>
-        <v/>
-      </c>
-      <c r="C38" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C38" s="8">
         <f>IF(A38="","",SUMPRODUCT(D38:BA38,D115:BA115))</f>
-        <v/>
-      </c>
-      <c r="D38" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -11659,16 +12314,20 @@
       <c r="W38" s="9"/>
     </row>
     <row r="39" spans="1:1025">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5" t="str">
+      <c r="A39" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5">
         <f>IF(A39="","",SUM(D39:BA39))</f>
-        <v/>
-      </c>
-      <c r="C39" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C39" s="8">
         <f>IF(A39="","",SUMPRODUCT(D39:BA39,D116:BA116))</f>
-        <v/>
-      </c>
-      <c r="D39" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
@@ -11690,16 +12349,20 @@
       <c r="W39" s="9"/>
     </row>
     <row r="40" spans="1:1025">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5" t="str">
+      <c r="A40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="5">
         <f>IF(A40="","",SUM(D40:BA40))</f>
-        <v/>
-      </c>
-      <c r="C40" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C40" s="8">
         <f>IF(A40="","",SUMPRODUCT(D40:BA40,D117:BA117))</f>
-        <v/>
-      </c>
-      <c r="D40" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
@@ -11721,16 +12384,20 @@
       <c r="W40" s="9"/>
     </row>
     <row r="41" spans="1:1025">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5" t="str">
+      <c r="A41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="5">
         <f>IF(A41="","",SUM(D41:BA41))</f>
-        <v/>
-      </c>
-      <c r="C41" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C41" s="8">
         <f>IF(A41="","",SUMPRODUCT(D41:BA41,D118:BA118))</f>
-        <v/>
-      </c>
-      <c r="D41" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -11752,16 +12419,20 @@
       <c r="W41" s="9"/>
     </row>
     <row r="42" spans="1:1025">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5" t="str">
+      <c r="A42" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="5">
         <f>IF(A42="","",SUM(D42:BA42))</f>
-        <v/>
-      </c>
-      <c r="C42" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C42" s="8">
         <f>IF(A42="","",SUMPRODUCT(D42:BA42,D119:BA119))</f>
-        <v/>
-      </c>
-      <c r="D42" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -11783,16 +12454,20 @@
       <c r="W42" s="9"/>
     </row>
     <row r="43" spans="1:1025">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5" t="str">
+      <c r="A43" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="5">
         <f>IF(A43="","",SUM(D43:BA43))</f>
-        <v/>
-      </c>
-      <c r="C43" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C43" s="8">
         <f>IF(A43="","",SUMPRODUCT(D43:BA43,D120:BA120))</f>
-        <v/>
-      </c>
-      <c r="D43" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
@@ -11814,16 +12489,20 @@
       <c r="W43" s="9"/>
     </row>
     <row r="44" spans="1:1025">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5" t="str">
+      <c r="A44" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="5">
         <f>IF(A44="","",SUM(D44:BA44))</f>
-        <v/>
-      </c>
-      <c r="C44" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C44" s="8">
         <f>IF(A44="","",SUMPRODUCT(D44:BA44,D121:BA121))</f>
-        <v/>
-      </c>
-      <c r="D44" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -12759,7 +13438,7 @@
     </row>
     <row r="83" spans="1:1025" hidden="true">
       <c r="A83" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D83" s="1">
         <f>IF(D5="","",D4/D2)</f>
@@ -13176,16 +13855,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="10" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>0</v>
@@ -13193,13 +13872,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D2">
         <v>3.0</v>
@@ -13210,13 +13889,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D3">
         <v>4.0</v>
@@ -13227,16 +13906,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>6.0</v>
+        <v>6.3</v>
       </c>
       <c r="E4">
         <v>1</v>

--- a/excel_emplenat.xlsx
+++ b/excel_emplenat.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Grups</t>
   </si>
@@ -50,97 +50,10 @@
     <t>tfg T</t>
   </si>
   <si>
-    <t>MDL</t>
+    <t>LB</t>
   </si>
   <si>
     <t>JMME</t>
-  </si>
-  <si>
-    <t>MC</t>
-  </si>
-  <si>
-    <t>SB</t>
-  </si>
-  <si>
-    <t>VP</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>RM</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>Pw</t>
-  </si>
-  <si>
-    <t>Sw</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>Dd</t>
-  </si>
-  <si>
-    <t>Vb</t>
-  </si>
-  <si>
-    <t>Pj</t>
-  </si>
-  <si>
-    <t>Rd</t>
-  </si>
-  <si>
-    <t>Dr</t>
-  </si>
-  <si>
-    <t>Vg</t>
-  </si>
-  <si>
-    <t>Ph</t>
-  </si>
-  <si>
-    <t>Sr</t>
-  </si>
-  <si>
-    <t>De</t>
-  </si>
-  <si>
-    <t>Vj</t>
-  </si>
-  <si>
-    <t>Sf</t>
-  </si>
-  <si>
-    <t>Rs</t>
-  </si>
-  <si>
-    <t>Dt</t>
-  </si>
-  <si>
-    <t>Pt</t>
-  </si>
-  <si>
-    <t>Sv</t>
-  </si>
-  <si>
-    <t>Ds</t>
-  </si>
-  <si>
-    <t>Py</t>
-  </si>
-  <si>
-    <t>Ru</t>
-  </si>
-  <si>
-    <t>D5</t>
   </si>
   <si>
     <t>PADS/assign(1grup)</t>
@@ -1655,12 +1568,12 @@
       </c>
       <c r="B1" s="3">
         <f>SUM(D1:BA1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5">
         <f>IF(D5="","",SUM(D6:D81))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1" s="5">
         <f>IF(E5="","",SUM(E6:E81))</f>
@@ -1932,11 +1845,11 @@
       <c r="B3" s="4"/>
       <c r="C3" s="3">
         <f>SUM(D3:BA3)</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D3" s="5">
         <f>IFERROR(D4/D2*D1,"")</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E3" s="5">
         <f>IFERROR(E4/E2*E1,"")</f>
@@ -2142,7 +2055,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="3">
         <f>SUM(D4:BA4)</f>
-        <v>51.9</v>
+        <v>51</v>
       </c>
       <c r="D4" s="5">
         <v>9.0</v>
@@ -2151,7 +2064,7 @@
         <v>24.0</v>
       </c>
       <c r="F4" s="5">
-        <v>18.9</v>
+        <v>18.0</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -2274,14 +2187,14 @@
       </c>
       <c r="B6" s="5">
         <f>IF(A6="","",SUM(D6:BA6))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="8">
         <f>IF(A6="","",SUMPRODUCT(D6:BA6,$D$83:$BA$83))</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D6" s="9">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" s="9">
         <v>0.0</v>
@@ -2377,26 +2290,18 @@
       <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:1025">
-      <c r="A8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="str">
         <f>IF(A8="","",SUM(D8:BA8))</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="8">
+        <v/>
+      </c>
+      <c r="C8" s="8" t="str">
         <f>IF(A8="","",SUMPRODUCT(D8:BA8,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -2416,26 +2321,18 @@
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:1025">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="str">
         <f>IF(A9="","",SUM(D9:BA9))</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="8">
+        <v/>
+      </c>
+      <c r="C9" s="8" t="str">
         <f>IF(A9="","",SUMPRODUCT(D9:BA9,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -2455,26 +2352,18 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:1025">
-      <c r="A10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="str">
         <f>IF(A10="","",SUM(D10:BA10))</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="8">
+        <v/>
+      </c>
+      <c r="C10" s="8" t="str">
         <f>IF(A10="","",SUMPRODUCT(D10:BA10,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -2494,26 +2383,18 @@
       <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:1025">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="str">
         <f>IF(A11="","",SUM(D11:BA11))</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="8">
+        <v/>
+      </c>
+      <c r="C11" s="8" t="str">
         <f>IF(A11="","",SUMPRODUCT(D11:BA11,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -2533,26 +2414,18 @@
       <c r="W11" s="9"/>
     </row>
     <row r="12" spans="1:1025">
-      <c r="A12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="str">
         <f>IF(A12="","",SUM(D12:BA12))</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
+        <v/>
+      </c>
+      <c r="C12" s="8" t="str">
         <f>IF(A12="","",SUMPRODUCT(D12:BA12,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -2572,26 +2445,18 @@
       <c r="W12" s="9"/>
     </row>
     <row r="13" spans="1:1025">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="str">
         <f>IF(A13="","",SUM(D13:BA13))</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="8">
+        <v/>
+      </c>
+      <c r="C13" s="8" t="str">
         <f>IF(A13="","",SUMPRODUCT(D13:BA13,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -2611,26 +2476,18 @@
       <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:1025">
-      <c r="A14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="str">
         <f>IF(A14="","",SUM(D14:BA14))</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="8">
+        <v/>
+      </c>
+      <c r="C14" s="8" t="str">
         <f>IF(A14="","",SUMPRODUCT(D14:BA14,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -2650,26 +2507,18 @@
       <c r="W14" s="9"/>
     </row>
     <row r="15" spans="1:1025">
-      <c r="A15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="str">
         <f>IF(A15="","",SUM(D15:BA15))</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="8">
+        <v/>
+      </c>
+      <c r="C15" s="8" t="str">
         <f>IF(A15="","",SUMPRODUCT(D15:BA15,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -2689,26 +2538,18 @@
       <c r="W15" s="9"/>
     </row>
     <row r="16" spans="1:1025">
-      <c r="A16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="str">
         <f>IF(A16="","",SUM(D16:BA16))</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="8">
+        <v/>
+      </c>
+      <c r="C16" s="8" t="str">
         <f>IF(A16="","",SUMPRODUCT(D16:BA16,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -2728,26 +2569,18 @@
       <c r="W16" s="9"/>
     </row>
     <row r="17" spans="1:1025">
-      <c r="A17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="str">
         <f>IF(A17="","",SUM(D17:BA17))</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="8">
+        <v/>
+      </c>
+      <c r="C17" s="8" t="str">
         <f>IF(A17="","",SUMPRODUCT(D17:BA17,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -2767,26 +2600,18 @@
       <c r="W17" s="9"/>
     </row>
     <row r="18" spans="1:1025">
-      <c r="A18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="str">
         <f>IF(A18="","",SUM(D18:BA18))</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="8">
+        <v/>
+      </c>
+      <c r="C18" s="8" t="str">
         <f>IF(A18="","",SUMPRODUCT(D18:BA18,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -2806,26 +2631,18 @@
       <c r="W18" s="9"/>
     </row>
     <row r="19" spans="1:1025">
-      <c r="A19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="str">
         <f>IF(A19="","",SUM(D19:BA19))</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="8">
+        <v/>
+      </c>
+      <c r="C19" s="8" t="str">
         <f>IF(A19="","",SUMPRODUCT(D19:BA19,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -2845,26 +2662,18 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:1025">
-      <c r="A20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="5">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="str">
         <f>IF(A20="","",SUM(D20:BA20))</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="8">
+        <v/>
+      </c>
+      <c r="C20" s="8" t="str">
         <f>IF(A20="","",SUMPRODUCT(D20:BA20,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -2884,26 +2693,18 @@
       <c r="W20" s="9"/>
     </row>
     <row r="21" spans="1:1025">
-      <c r="A21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="5">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="str">
         <f>IF(A21="","",SUM(D21:BA21))</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="8">
+        <v/>
+      </c>
+      <c r="C21" s="8" t="str">
         <f>IF(A21="","",SUMPRODUCT(D21:BA21,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -2923,26 +2724,18 @@
       <c r="W21" s="9"/>
     </row>
     <row r="22" spans="1:1025">
-      <c r="A22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="5">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="str">
         <f>IF(A22="","",SUM(D22:BA22))</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="8">
+        <v/>
+      </c>
+      <c r="C22" s="8" t="str">
         <f>IF(A22="","",SUMPRODUCT(D22:BA22,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -2962,26 +2755,18 @@
       <c r="W22" s="9"/>
     </row>
     <row r="23" spans="1:1025">
-      <c r="A23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="5">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="str">
         <f>IF(A23="","",SUM(D23:BA23))</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="8">
+        <v/>
+      </c>
+      <c r="C23" s="8" t="str">
         <f>IF(A23="","",SUMPRODUCT(D23:BA23,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E23" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F23" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -3001,26 +2786,18 @@
       <c r="W23" s="9"/>
     </row>
     <row r="24" spans="1:1025">
-      <c r="A24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="5">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="str">
         <f>IF(A24="","",SUM(D24:BA24))</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="8">
+        <v/>
+      </c>
+      <c r="C24" s="8" t="str">
         <f>IF(A24="","",SUMPRODUCT(D24:BA24,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F24" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -3040,26 +2817,18 @@
       <c r="W24" s="9"/>
     </row>
     <row r="25" spans="1:1025">
-      <c r="A25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="5">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="str">
         <f>IF(A25="","",SUM(D25:BA25))</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="8">
+        <v/>
+      </c>
+      <c r="C25" s="8" t="str">
         <f>IF(A25="","",SUMPRODUCT(D25:BA25,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E25" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F25" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -3079,26 +2848,18 @@
       <c r="W25" s="9"/>
     </row>
     <row r="26" spans="1:1025">
-      <c r="A26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="5">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="str">
         <f>IF(A26="","",SUM(D26:BA26))</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="8">
+        <v/>
+      </c>
+      <c r="C26" s="8" t="str">
         <f>IF(A26="","",SUMPRODUCT(D26:BA26,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E26" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F26" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -3118,26 +2879,18 @@
       <c r="W26" s="9"/>
     </row>
     <row r="27" spans="1:1025">
-      <c r="A27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="5">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="str">
         <f>IF(A27="","",SUM(D27:BA27))</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="8">
+        <v/>
+      </c>
+      <c r="C27" s="8" t="str">
         <f>IF(A27="","",SUMPRODUCT(D27:BA27,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F27" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -3157,26 +2910,18 @@
       <c r="W27" s="9"/>
     </row>
     <row r="28" spans="1:1025">
-      <c r="A28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="5">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="str">
         <f>IF(A28="","",SUM(D28:BA28))</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="8">
+        <v/>
+      </c>
+      <c r="C28" s="8" t="str">
         <f>IF(A28="","",SUMPRODUCT(D28:BA28,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E28" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F28" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -3196,26 +2941,18 @@
       <c r="W28" s="9"/>
     </row>
     <row r="29" spans="1:1025">
-      <c r="A29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="5">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="str">
         <f>IF(A29="","",SUM(D29:BA29))</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="8">
+        <v/>
+      </c>
+      <c r="C29" s="8" t="str">
         <f>IF(A29="","",SUMPRODUCT(D29:BA29,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E29" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F29" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -3235,26 +2972,18 @@
       <c r="W29" s="9"/>
     </row>
     <row r="30" spans="1:1025">
-      <c r="A30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="5">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5" t="str">
         <f>IF(A30="","",SUM(D30:BA30))</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="8">
+        <v/>
+      </c>
+      <c r="C30" s="8" t="str">
         <f>IF(A30="","",SUMPRODUCT(D30:BA30,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F30" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -3274,26 +3003,18 @@
       <c r="W30" s="9"/>
     </row>
     <row r="31" spans="1:1025">
-      <c r="A31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="5">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="str">
         <f>IF(A31="","",SUM(D31:BA31))</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="8">
+        <v/>
+      </c>
+      <c r="C31" s="8" t="str">
         <f>IF(A31="","",SUMPRODUCT(D31:BA31,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E31" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F31" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -3313,26 +3034,18 @@
       <c r="W31" s="9"/>
     </row>
     <row r="32" spans="1:1025">
-      <c r="A32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="5">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5" t="str">
         <f>IF(A32="","",SUM(D32:BA32))</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="8">
+        <v/>
+      </c>
+      <c r="C32" s="8" t="str">
         <f>IF(A32="","",SUMPRODUCT(D32:BA32,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E32" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F32" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
@@ -3352,26 +3065,18 @@
       <c r="W32" s="9"/>
     </row>
     <row r="33" spans="1:1025">
-      <c r="A33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="5">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5" t="str">
         <f>IF(A33="","",SUM(D33:BA33))</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="8">
+        <v/>
+      </c>
+      <c r="C33" s="8" t="str">
         <f>IF(A33="","",SUMPRODUCT(D33:BA33,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F33" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
@@ -3391,26 +3096,18 @@
       <c r="W33" s="9"/>
     </row>
     <row r="34" spans="1:1025">
-      <c r="A34" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="5">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5" t="str">
         <f>IF(A34="","",SUM(D34:BA34))</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="8">
+        <v/>
+      </c>
+      <c r="C34" s="8" t="str">
         <f>IF(A34="","",SUMPRODUCT(D34:BA34,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E34" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F34" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -3430,26 +3127,18 @@
       <c r="W34" s="9"/>
     </row>
     <row r="35" spans="1:1025">
-      <c r="A35" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="5">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="str">
         <f>IF(A35="","",SUM(D35:BA35))</f>
-        <v>0</v>
-      </c>
-      <c r="C35" s="8">
+        <v/>
+      </c>
+      <c r="C35" s="8" t="str">
         <f>IF(A35="","",SUMPRODUCT(D35:BA35,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E35" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F35" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -3469,26 +3158,18 @@
       <c r="W35" s="9"/>
     </row>
     <row r="36" spans="1:1025">
-      <c r="A36" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="5">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5" t="str">
         <f>IF(A36="","",SUM(D36:BA36))</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="8">
+        <v/>
+      </c>
+      <c r="C36" s="8" t="str">
         <f>IF(A36="","",SUMPRODUCT(D36:BA36,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E36" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F36" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -3508,26 +3189,18 @@
       <c r="W36" s="9"/>
     </row>
     <row r="37" spans="1:1025">
-      <c r="A37" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="5">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="str">
         <f>IF(A37="","",SUM(D37:BA37))</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="8">
+        <v/>
+      </c>
+      <c r="C37" s="8" t="str">
         <f>IF(A37="","",SUMPRODUCT(D37:BA37,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E37" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F37" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
@@ -3547,26 +3220,18 @@
       <c r="W37" s="9"/>
     </row>
     <row r="38" spans="1:1025">
-      <c r="A38" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="5">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5" t="str">
         <f>IF(A38="","",SUM(D38:BA38))</f>
-        <v>0</v>
-      </c>
-      <c r="C38" s="8">
+        <v/>
+      </c>
+      <c r="C38" s="8" t="str">
         <f>IF(A38="","",SUMPRODUCT(D38:BA38,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E38" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F38" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -3586,26 +3251,18 @@
       <c r="W38" s="9"/>
     </row>
     <row r="39" spans="1:1025">
-      <c r="A39" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="5">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5" t="str">
         <f>IF(A39="","",SUM(D39:BA39))</f>
-        <v>0</v>
-      </c>
-      <c r="C39" s="8">
+        <v/>
+      </c>
+      <c r="C39" s="8" t="str">
         <f>IF(A39="","",SUMPRODUCT(D39:BA39,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E39" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F39" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
@@ -3625,26 +3282,18 @@
       <c r="W39" s="9"/>
     </row>
     <row r="40" spans="1:1025">
-      <c r="A40" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="5">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5" t="str">
         <f>IF(A40="","",SUM(D40:BA40))</f>
-        <v>0</v>
-      </c>
-      <c r="C40" s="8">
+        <v/>
+      </c>
+      <c r="C40" s="8" t="str">
         <f>IF(A40="","",SUMPRODUCT(D40:BA40,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E40" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F40" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -3664,26 +3313,18 @@
       <c r="W40" s="9"/>
     </row>
     <row r="41" spans="1:1025">
-      <c r="A41" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="5">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5" t="str">
         <f>IF(A41="","",SUM(D41:BA41))</f>
-        <v>0</v>
-      </c>
-      <c r="C41" s="8">
+        <v/>
+      </c>
+      <c r="C41" s="8" t="str">
         <f>IF(A41="","",SUMPRODUCT(D41:BA41,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E41" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F41" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
@@ -3703,26 +3344,18 @@
       <c r="W41" s="9"/>
     </row>
     <row r="42" spans="1:1025">
-      <c r="A42" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="5">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5" t="str">
         <f>IF(A42="","",SUM(D42:BA42))</f>
-        <v>0</v>
-      </c>
-      <c r="C42" s="8">
+        <v/>
+      </c>
+      <c r="C42" s="8" t="str">
         <f>IF(A42="","",SUMPRODUCT(D42:BA42,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E42" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F42" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -3742,26 +3375,18 @@
       <c r="W42" s="9"/>
     </row>
     <row r="43" spans="1:1025">
-      <c r="A43" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="5">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5" t="str">
         <f>IF(A43="","",SUM(D43:BA43))</f>
-        <v>0</v>
-      </c>
-      <c r="C43" s="8">
+        <v/>
+      </c>
+      <c r="C43" s="8" t="str">
         <f>IF(A43="","",SUMPRODUCT(D43:BA43,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E43" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F43" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
@@ -3781,26 +3406,18 @@
       <c r="W43" s="9"/>
     </row>
     <row r="44" spans="1:1025">
-      <c r="A44" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="5">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5" t="str">
         <f>IF(A44="","",SUM(D44:BA44))</f>
-        <v>0</v>
-      </c>
-      <c r="C44" s="8">
+        <v/>
+      </c>
+      <c r="C44" s="8" t="str">
         <f>IF(A44="","",SUMPRODUCT(D44:BA44,$D$83:$BA$83))</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E44" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F44" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
@@ -4734,7 +4351,7 @@
     </row>
     <row r="83" spans="1:1025" hidden="true">
       <c r="A83" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D83" s="1">
         <f>IF(D5="","",D4/D2)</f>
@@ -4746,7 +4363,7 @@
       </c>
       <c r="F83" s="1">
         <f>IF(F5="","",F4/F2)</f>
-        <v>18.9</v>
+        <v>18</v>
       </c>
       <c r="G83" s="1" t="str">
         <f>IF(G5="","",G4/G2)</f>
@@ -6175,12 +5792,12 @@
       </c>
       <c r="B1" s="3">
         <f>SUM(D1:BA1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5">
         <f>IF(D5="","",SUM(D6:D81))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1" s="5" t="str">
         <f>IF(E5="","",SUM(E6:E81))</f>
@@ -6448,11 +6065,11 @@
       <c r="B3" s="4"/>
       <c r="C3" s="3">
         <f>SUM(D3:BA3)</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D3" s="5">
         <f>IFERROR(D4/D2*D1,"")</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E3" s="5" t="str">
         <f>IFERROR(E4/E2*E1,"")</f>
@@ -6782,14 +6399,14 @@
       </c>
       <c r="B6" s="5">
         <f>IF(A6="","",SUM(D6:BA6))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="8">
         <f>IF(A6="","",SUMPRODUCT(D6:BA6,D83:BA83))</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D6" s="9">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -6877,20 +6494,16 @@
       <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:1025">
-      <c r="A8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="str">
         <f>IF(A8="","",SUM(D8:BA8))</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="8">
+        <v/>
+      </c>
+      <c r="C8" s="8" t="str">
         <f>IF(A8="","",SUMPRODUCT(D8:BA8,D85:BA85))</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -6912,20 +6525,16 @@
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:1025">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="str">
         <f>IF(A9="","",SUM(D9:BA9))</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="8">
+        <v/>
+      </c>
+      <c r="C9" s="8" t="str">
         <f>IF(A9="","",SUMPRODUCT(D9:BA9,D86:BA86))</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -6947,20 +6556,16 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:1025">
-      <c r="A10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="str">
         <f>IF(A10="","",SUM(D10:BA10))</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="8">
+        <v/>
+      </c>
+      <c r="C10" s="8" t="str">
         <f>IF(A10="","",SUMPRODUCT(D10:BA10,D87:BA87))</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -6982,20 +6587,16 @@
       <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:1025">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="str">
         <f>IF(A11="","",SUM(D11:BA11))</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="8">
+        <v/>
+      </c>
+      <c r="C11" s="8" t="str">
         <f>IF(A11="","",SUMPRODUCT(D11:BA11,D88:BA88))</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -7017,20 +6618,16 @@
       <c r="W11" s="9"/>
     </row>
     <row r="12" spans="1:1025">
-      <c r="A12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="str">
         <f>IF(A12="","",SUM(D12:BA12))</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
+        <v/>
+      </c>
+      <c r="C12" s="8" t="str">
         <f>IF(A12="","",SUMPRODUCT(D12:BA12,D89:BA89))</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -7052,20 +6649,16 @@
       <c r="W12" s="9"/>
     </row>
     <row r="13" spans="1:1025">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="str">
         <f>IF(A13="","",SUM(D13:BA13))</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="8">
+        <v/>
+      </c>
+      <c r="C13" s="8" t="str">
         <f>IF(A13="","",SUMPRODUCT(D13:BA13,D90:BA90))</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -7087,20 +6680,16 @@
       <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:1025">
-      <c r="A14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="str">
         <f>IF(A14="","",SUM(D14:BA14))</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="8">
+        <v/>
+      </c>
+      <c r="C14" s="8" t="str">
         <f>IF(A14="","",SUMPRODUCT(D14:BA14,D91:BA91))</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -7122,20 +6711,16 @@
       <c r="W14" s="9"/>
     </row>
     <row r="15" spans="1:1025">
-      <c r="A15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="str">
         <f>IF(A15="","",SUM(D15:BA15))</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="8">
+        <v/>
+      </c>
+      <c r="C15" s="8" t="str">
         <f>IF(A15="","",SUMPRODUCT(D15:BA15,D92:BA92))</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -7157,20 +6742,16 @@
       <c r="W15" s="9"/>
     </row>
     <row r="16" spans="1:1025">
-      <c r="A16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="str">
         <f>IF(A16="","",SUM(D16:BA16))</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="8">
+        <v/>
+      </c>
+      <c r="C16" s="8" t="str">
         <f>IF(A16="","",SUMPRODUCT(D16:BA16,D93:BA93))</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -7192,20 +6773,16 @@
       <c r="W16" s="9"/>
     </row>
     <row r="17" spans="1:1025">
-      <c r="A17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="str">
         <f>IF(A17="","",SUM(D17:BA17))</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="8">
+        <v/>
+      </c>
+      <c r="C17" s="8" t="str">
         <f>IF(A17="","",SUMPRODUCT(D17:BA17,D94:BA94))</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -7227,20 +6804,16 @@
       <c r="W17" s="9"/>
     </row>
     <row r="18" spans="1:1025">
-      <c r="A18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="str">
         <f>IF(A18="","",SUM(D18:BA18))</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="8">
+        <v/>
+      </c>
+      <c r="C18" s="8" t="str">
         <f>IF(A18="","",SUMPRODUCT(D18:BA18,D95:BA95))</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -7262,20 +6835,16 @@
       <c r="W18" s="9"/>
     </row>
     <row r="19" spans="1:1025">
-      <c r="A19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="str">
         <f>IF(A19="","",SUM(D19:BA19))</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="8">
+        <v/>
+      </c>
+      <c r="C19" s="8" t="str">
         <f>IF(A19="","",SUMPRODUCT(D19:BA19,D96:BA96))</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -7297,20 +6866,16 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:1025">
-      <c r="A20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="5">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="str">
         <f>IF(A20="","",SUM(D20:BA20))</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="8">
+        <v/>
+      </c>
+      <c r="C20" s="8" t="str">
         <f>IF(A20="","",SUMPRODUCT(D20:BA20,D97:BA97))</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -7332,20 +6897,16 @@
       <c r="W20" s="9"/>
     </row>
     <row r="21" spans="1:1025">
-      <c r="A21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="5">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="str">
         <f>IF(A21="","",SUM(D21:BA21))</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="8">
+        <v/>
+      </c>
+      <c r="C21" s="8" t="str">
         <f>IF(A21="","",SUMPRODUCT(D21:BA21,D98:BA98))</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -7367,20 +6928,16 @@
       <c r="W21" s="9"/>
     </row>
     <row r="22" spans="1:1025">
-      <c r="A22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="5">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="str">
         <f>IF(A22="","",SUM(D22:BA22))</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="8">
+        <v/>
+      </c>
+      <c r="C22" s="8" t="str">
         <f>IF(A22="","",SUMPRODUCT(D22:BA22,D99:BA99))</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -7402,20 +6959,16 @@
       <c r="W22" s="9"/>
     </row>
     <row r="23" spans="1:1025">
-      <c r="A23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="5">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="str">
         <f>IF(A23="","",SUM(D23:BA23))</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="8">
+        <v/>
+      </c>
+      <c r="C23" s="8" t="str">
         <f>IF(A23="","",SUMPRODUCT(D23:BA23,D100:BA100))</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -7437,20 +6990,16 @@
       <c r="W23" s="9"/>
     </row>
     <row r="24" spans="1:1025">
-      <c r="A24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="5">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="str">
         <f>IF(A24="","",SUM(D24:BA24))</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="8">
+        <v/>
+      </c>
+      <c r="C24" s="8" t="str">
         <f>IF(A24="","",SUMPRODUCT(D24:BA24,D101:BA101))</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -7472,20 +7021,16 @@
       <c r="W24" s="9"/>
     </row>
     <row r="25" spans="1:1025">
-      <c r="A25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="5">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="str">
         <f>IF(A25="","",SUM(D25:BA25))</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="8">
+        <v/>
+      </c>
+      <c r="C25" s="8" t="str">
         <f>IF(A25="","",SUMPRODUCT(D25:BA25,D102:BA102))</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -7507,20 +7052,16 @@
       <c r="W25" s="9"/>
     </row>
     <row r="26" spans="1:1025">
-      <c r="A26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="5">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="str">
         <f>IF(A26="","",SUM(D26:BA26))</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="8">
+        <v/>
+      </c>
+      <c r="C26" s="8" t="str">
         <f>IF(A26="","",SUMPRODUCT(D26:BA26,D103:BA103))</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -7542,20 +7083,16 @@
       <c r="W26" s="9"/>
     </row>
     <row r="27" spans="1:1025">
-      <c r="A27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="5">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="str">
         <f>IF(A27="","",SUM(D27:BA27))</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="8">
+        <v/>
+      </c>
+      <c r="C27" s="8" t="str">
         <f>IF(A27="","",SUMPRODUCT(D27:BA27,D104:BA104))</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -7577,20 +7114,16 @@
       <c r="W27" s="9"/>
     </row>
     <row r="28" spans="1:1025">
-      <c r="A28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="5">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="str">
         <f>IF(A28="","",SUM(D28:BA28))</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="8">
+        <v/>
+      </c>
+      <c r="C28" s="8" t="str">
         <f>IF(A28="","",SUMPRODUCT(D28:BA28,D105:BA105))</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -7612,20 +7145,16 @@
       <c r="W28" s="9"/>
     </row>
     <row r="29" spans="1:1025">
-      <c r="A29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="5">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="str">
         <f>IF(A29="","",SUM(D29:BA29))</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="8">
+        <v/>
+      </c>
+      <c r="C29" s="8" t="str">
         <f>IF(A29="","",SUMPRODUCT(D29:BA29,D106:BA106))</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -7647,20 +7176,16 @@
       <c r="W29" s="9"/>
     </row>
     <row r="30" spans="1:1025">
-      <c r="A30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="5">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5" t="str">
         <f>IF(A30="","",SUM(D30:BA30))</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="8">
+        <v/>
+      </c>
+      <c r="C30" s="8" t="str">
         <f>IF(A30="","",SUMPRODUCT(D30:BA30,D107:BA107))</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -7682,20 +7207,16 @@
       <c r="W30" s="9"/>
     </row>
     <row r="31" spans="1:1025">
-      <c r="A31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="5">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="str">
         <f>IF(A31="","",SUM(D31:BA31))</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="8">
+        <v/>
+      </c>
+      <c r="C31" s="8" t="str">
         <f>IF(A31="","",SUMPRODUCT(D31:BA31,D108:BA108))</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -7717,20 +7238,16 @@
       <c r="W31" s="9"/>
     </row>
     <row r="32" spans="1:1025">
-      <c r="A32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="5">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5" t="str">
         <f>IF(A32="","",SUM(D32:BA32))</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="8">
+        <v/>
+      </c>
+      <c r="C32" s="8" t="str">
         <f>IF(A32="","",SUMPRODUCT(D32:BA32,D109:BA109))</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -7752,20 +7269,16 @@
       <c r="W32" s="9"/>
     </row>
     <row r="33" spans="1:1025">
-      <c r="A33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="5">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5" t="str">
         <f>IF(A33="","",SUM(D33:BA33))</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="8">
+        <v/>
+      </c>
+      <c r="C33" s="8" t="str">
         <f>IF(A33="","",SUMPRODUCT(D33:BA33,D110:BA110))</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -7787,20 +7300,16 @@
       <c r="W33" s="9"/>
     </row>
     <row r="34" spans="1:1025">
-      <c r="A34" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="5">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5" t="str">
         <f>IF(A34="","",SUM(D34:BA34))</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="8">
+        <v/>
+      </c>
+      <c r="C34" s="8" t="str">
         <f>IF(A34="","",SUMPRODUCT(D34:BA34,D111:BA111))</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -7822,20 +7331,16 @@
       <c r="W34" s="9"/>
     </row>
     <row r="35" spans="1:1025">
-      <c r="A35" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="5">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="str">
         <f>IF(A35="","",SUM(D35:BA35))</f>
-        <v>0</v>
-      </c>
-      <c r="C35" s="8">
+        <v/>
+      </c>
+      <c r="C35" s="8" t="str">
         <f>IF(A35="","",SUMPRODUCT(D35:BA35,D112:BA112))</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
@@ -7857,20 +7362,16 @@
       <c r="W35" s="9"/>
     </row>
     <row r="36" spans="1:1025">
-      <c r="A36" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="5">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5" t="str">
         <f>IF(A36="","",SUM(D36:BA36))</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="8">
+        <v/>
+      </c>
+      <c r="C36" s="8" t="str">
         <f>IF(A36="","",SUMPRODUCT(D36:BA36,D113:BA113))</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
@@ -7892,20 +7393,16 @@
       <c r="W36" s="9"/>
     </row>
     <row r="37" spans="1:1025">
-      <c r="A37" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="5">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="str">
         <f>IF(A37="","",SUM(D37:BA37))</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="8">
+        <v/>
+      </c>
+      <c r="C37" s="8" t="str">
         <f>IF(A37="","",SUMPRODUCT(D37:BA37,D114:BA114))</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
@@ -7927,20 +7424,16 @@
       <c r="W37" s="9"/>
     </row>
     <row r="38" spans="1:1025">
-      <c r="A38" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="5">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5" t="str">
         <f>IF(A38="","",SUM(D38:BA38))</f>
-        <v>0</v>
-      </c>
-      <c r="C38" s="8">
+        <v/>
+      </c>
+      <c r="C38" s="8" t="str">
         <f>IF(A38="","",SUMPRODUCT(D38:BA38,D115:BA115))</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -7962,20 +7455,16 @@
       <c r="W38" s="9"/>
     </row>
     <row r="39" spans="1:1025">
-      <c r="A39" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="5">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5" t="str">
         <f>IF(A39="","",SUM(D39:BA39))</f>
-        <v>0</v>
-      </c>
-      <c r="C39" s="8">
+        <v/>
+      </c>
+      <c r="C39" s="8" t="str">
         <f>IF(A39="","",SUMPRODUCT(D39:BA39,D116:BA116))</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
@@ -7997,20 +7486,16 @@
       <c r="W39" s="9"/>
     </row>
     <row r="40" spans="1:1025">
-      <c r="A40" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="5">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5" t="str">
         <f>IF(A40="","",SUM(D40:BA40))</f>
-        <v>0</v>
-      </c>
-      <c r="C40" s="8">
+        <v/>
+      </c>
+      <c r="C40" s="8" t="str">
         <f>IF(A40="","",SUMPRODUCT(D40:BA40,D117:BA117))</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
@@ -8032,20 +7517,16 @@
       <c r="W40" s="9"/>
     </row>
     <row r="41" spans="1:1025">
-      <c r="A41" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="5">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5" t="str">
         <f>IF(A41="","",SUM(D41:BA41))</f>
-        <v>0</v>
-      </c>
-      <c r="C41" s="8">
+        <v/>
+      </c>
+      <c r="C41" s="8" t="str">
         <f>IF(A41="","",SUMPRODUCT(D41:BA41,D118:BA118))</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -8067,20 +7548,16 @@
       <c r="W41" s="9"/>
     </row>
     <row r="42" spans="1:1025">
-      <c r="A42" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="5">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5" t="str">
         <f>IF(A42="","",SUM(D42:BA42))</f>
-        <v>0</v>
-      </c>
-      <c r="C42" s="8">
+        <v/>
+      </c>
+      <c r="C42" s="8" t="str">
         <f>IF(A42="","",SUMPRODUCT(D42:BA42,D119:BA119))</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -8102,20 +7579,16 @@
       <c r="W42" s="9"/>
     </row>
     <row r="43" spans="1:1025">
-      <c r="A43" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="5">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5" t="str">
         <f>IF(A43="","",SUM(D43:BA43))</f>
-        <v>0</v>
-      </c>
-      <c r="C43" s="8">
+        <v/>
+      </c>
+      <c r="C43" s="8" t="str">
         <f>IF(A43="","",SUMPRODUCT(D43:BA43,D120:BA120))</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
@@ -8137,20 +7610,16 @@
       <c r="W43" s="9"/>
     </row>
     <row r="44" spans="1:1025">
-      <c r="A44" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="5">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5" t="str">
         <f>IF(A44="","",SUM(D44:BA44))</f>
-        <v>0</v>
-      </c>
-      <c r="C44" s="8">
+        <v/>
+      </c>
+      <c r="C44" s="8" t="str">
         <f>IF(A44="","",SUMPRODUCT(D44:BA44,D121:BA121))</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -9086,7 +8555,7 @@
     </row>
     <row r="83" spans="1:1025" hidden="true">
       <c r="A83" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D83" s="1">
         <f>IF(D5="","",D4/D2)</f>
@@ -11229,20 +10698,16 @@
       <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:1025">
-      <c r="A8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="str">
         <f>IF(A8="","",SUM(D8:BA8))</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="8">
+        <v/>
+      </c>
+      <c r="C8" s="8" t="str">
         <f>IF(A8="","",SUMPRODUCT(D8:BA8,D85:BA85))</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -11264,20 +10729,16 @@
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:1025">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="str">
         <f>IF(A9="","",SUM(D9:BA9))</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="8">
+        <v/>
+      </c>
+      <c r="C9" s="8" t="str">
         <f>IF(A9="","",SUMPRODUCT(D9:BA9,D86:BA86))</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -11299,20 +10760,16 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:1025">
-      <c r="A10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="str">
         <f>IF(A10="","",SUM(D10:BA10))</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="8">
+        <v/>
+      </c>
+      <c r="C10" s="8" t="str">
         <f>IF(A10="","",SUMPRODUCT(D10:BA10,D87:BA87))</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -11334,20 +10791,16 @@
       <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:1025">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="str">
         <f>IF(A11="","",SUM(D11:BA11))</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="8">
+        <v/>
+      </c>
+      <c r="C11" s="8" t="str">
         <f>IF(A11="","",SUMPRODUCT(D11:BA11,D88:BA88))</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -11369,20 +10822,16 @@
       <c r="W11" s="9"/>
     </row>
     <row r="12" spans="1:1025">
-      <c r="A12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="str">
         <f>IF(A12="","",SUM(D12:BA12))</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
+        <v/>
+      </c>
+      <c r="C12" s="8" t="str">
         <f>IF(A12="","",SUMPRODUCT(D12:BA12,D89:BA89))</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -11404,20 +10853,16 @@
       <c r="W12" s="9"/>
     </row>
     <row r="13" spans="1:1025">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="str">
         <f>IF(A13="","",SUM(D13:BA13))</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="8">
+        <v/>
+      </c>
+      <c r="C13" s="8" t="str">
         <f>IF(A13="","",SUMPRODUCT(D13:BA13,D90:BA90))</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -11439,20 +10884,16 @@
       <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:1025">
-      <c r="A14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="str">
         <f>IF(A14="","",SUM(D14:BA14))</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="8">
+        <v/>
+      </c>
+      <c r="C14" s="8" t="str">
         <f>IF(A14="","",SUMPRODUCT(D14:BA14,D91:BA91))</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -11474,20 +10915,16 @@
       <c r="W14" s="9"/>
     </row>
     <row r="15" spans="1:1025">
-      <c r="A15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="str">
         <f>IF(A15="","",SUM(D15:BA15))</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="8">
+        <v/>
+      </c>
+      <c r="C15" s="8" t="str">
         <f>IF(A15="","",SUMPRODUCT(D15:BA15,D92:BA92))</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -11509,20 +10946,16 @@
       <c r="W15" s="9"/>
     </row>
     <row r="16" spans="1:1025">
-      <c r="A16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="str">
         <f>IF(A16="","",SUM(D16:BA16))</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="8">
+        <v/>
+      </c>
+      <c r="C16" s="8" t="str">
         <f>IF(A16="","",SUMPRODUCT(D16:BA16,D93:BA93))</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -11544,20 +10977,16 @@
       <c r="W16" s="9"/>
     </row>
     <row r="17" spans="1:1025">
-      <c r="A17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="str">
         <f>IF(A17="","",SUM(D17:BA17))</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="8">
+        <v/>
+      </c>
+      <c r="C17" s="8" t="str">
         <f>IF(A17="","",SUMPRODUCT(D17:BA17,D94:BA94))</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -11579,20 +11008,16 @@
       <c r="W17" s="9"/>
     </row>
     <row r="18" spans="1:1025">
-      <c r="A18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="str">
         <f>IF(A18="","",SUM(D18:BA18))</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="8">
+        <v/>
+      </c>
+      <c r="C18" s="8" t="str">
         <f>IF(A18="","",SUMPRODUCT(D18:BA18,D95:BA95))</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -11614,20 +11039,16 @@
       <c r="W18" s="9"/>
     </row>
     <row r="19" spans="1:1025">
-      <c r="A19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="str">
         <f>IF(A19="","",SUM(D19:BA19))</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="8">
+        <v/>
+      </c>
+      <c r="C19" s="8" t="str">
         <f>IF(A19="","",SUMPRODUCT(D19:BA19,D96:BA96))</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -11649,20 +11070,16 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:1025">
-      <c r="A20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="5">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="str">
         <f>IF(A20="","",SUM(D20:BA20))</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="8">
+        <v/>
+      </c>
+      <c r="C20" s="8" t="str">
         <f>IF(A20="","",SUMPRODUCT(D20:BA20,D97:BA97))</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -11684,20 +11101,16 @@
       <c r="W20" s="9"/>
     </row>
     <row r="21" spans="1:1025">
-      <c r="A21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="5">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="str">
         <f>IF(A21="","",SUM(D21:BA21))</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="8">
+        <v/>
+      </c>
+      <c r="C21" s="8" t="str">
         <f>IF(A21="","",SUMPRODUCT(D21:BA21,D98:BA98))</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -11719,20 +11132,16 @@
       <c r="W21" s="9"/>
     </row>
     <row r="22" spans="1:1025">
-      <c r="A22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="5">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="str">
         <f>IF(A22="","",SUM(D22:BA22))</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="8">
+        <v/>
+      </c>
+      <c r="C22" s="8" t="str">
         <f>IF(A22="","",SUMPRODUCT(D22:BA22,D99:BA99))</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -11754,20 +11163,16 @@
       <c r="W22" s="9"/>
     </row>
     <row r="23" spans="1:1025">
-      <c r="A23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="5">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="str">
         <f>IF(A23="","",SUM(D23:BA23))</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="8">
+        <v/>
+      </c>
+      <c r="C23" s="8" t="str">
         <f>IF(A23="","",SUMPRODUCT(D23:BA23,D100:BA100))</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -11789,20 +11194,16 @@
       <c r="W23" s="9"/>
     </row>
     <row r="24" spans="1:1025">
-      <c r="A24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="5">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="str">
         <f>IF(A24="","",SUM(D24:BA24))</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="8">
+        <v/>
+      </c>
+      <c r="C24" s="8" t="str">
         <f>IF(A24="","",SUMPRODUCT(D24:BA24,D101:BA101))</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -11824,20 +11225,16 @@
       <c r="W24" s="9"/>
     </row>
     <row r="25" spans="1:1025">
-      <c r="A25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="5">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="str">
         <f>IF(A25="","",SUM(D25:BA25))</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="8">
+        <v/>
+      </c>
+      <c r="C25" s="8" t="str">
         <f>IF(A25="","",SUMPRODUCT(D25:BA25,D102:BA102))</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -11859,20 +11256,16 @@
       <c r="W25" s="9"/>
     </row>
     <row r="26" spans="1:1025">
-      <c r="A26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="5">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="str">
         <f>IF(A26="","",SUM(D26:BA26))</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="8">
+        <v/>
+      </c>
+      <c r="C26" s="8" t="str">
         <f>IF(A26="","",SUMPRODUCT(D26:BA26,D103:BA103))</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -11894,20 +11287,16 @@
       <c r="W26" s="9"/>
     </row>
     <row r="27" spans="1:1025">
-      <c r="A27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="5">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="str">
         <f>IF(A27="","",SUM(D27:BA27))</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="8">
+        <v/>
+      </c>
+      <c r="C27" s="8" t="str">
         <f>IF(A27="","",SUMPRODUCT(D27:BA27,D104:BA104))</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -11929,20 +11318,16 @@
       <c r="W27" s="9"/>
     </row>
     <row r="28" spans="1:1025">
-      <c r="A28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="5">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="str">
         <f>IF(A28="","",SUM(D28:BA28))</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="8">
+        <v/>
+      </c>
+      <c r="C28" s="8" t="str">
         <f>IF(A28="","",SUMPRODUCT(D28:BA28,D105:BA105))</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -11964,20 +11349,16 @@
       <c r="W28" s="9"/>
     </row>
     <row r="29" spans="1:1025">
-      <c r="A29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="5">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="str">
         <f>IF(A29="","",SUM(D29:BA29))</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="8">
+        <v/>
+      </c>
+      <c r="C29" s="8" t="str">
         <f>IF(A29="","",SUMPRODUCT(D29:BA29,D106:BA106))</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -11999,20 +11380,16 @@
       <c r="W29" s="9"/>
     </row>
     <row r="30" spans="1:1025">
-      <c r="A30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="5">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5" t="str">
         <f>IF(A30="","",SUM(D30:BA30))</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="8">
+        <v/>
+      </c>
+      <c r="C30" s="8" t="str">
         <f>IF(A30="","",SUMPRODUCT(D30:BA30,D107:BA107))</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -12034,20 +11411,16 @@
       <c r="W30" s="9"/>
     </row>
     <row r="31" spans="1:1025">
-      <c r="A31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="5">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="str">
         <f>IF(A31="","",SUM(D31:BA31))</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="8">
+        <v/>
+      </c>
+      <c r="C31" s="8" t="str">
         <f>IF(A31="","",SUMPRODUCT(D31:BA31,D108:BA108))</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -12069,20 +11442,16 @@
       <c r="W31" s="9"/>
     </row>
     <row r="32" spans="1:1025">
-      <c r="A32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="5">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5" t="str">
         <f>IF(A32="","",SUM(D32:BA32))</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="8">
+        <v/>
+      </c>
+      <c r="C32" s="8" t="str">
         <f>IF(A32="","",SUMPRODUCT(D32:BA32,D109:BA109))</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -12104,20 +11473,16 @@
       <c r="W32" s="9"/>
     </row>
     <row r="33" spans="1:1025">
-      <c r="A33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="5">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5" t="str">
         <f>IF(A33="","",SUM(D33:BA33))</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="8">
+        <v/>
+      </c>
+      <c r="C33" s="8" t="str">
         <f>IF(A33="","",SUMPRODUCT(D33:BA33,D110:BA110))</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -12139,20 +11504,16 @@
       <c r="W33" s="9"/>
     </row>
     <row r="34" spans="1:1025">
-      <c r="A34" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="5">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5" t="str">
         <f>IF(A34="","",SUM(D34:BA34))</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="8">
+        <v/>
+      </c>
+      <c r="C34" s="8" t="str">
         <f>IF(A34="","",SUMPRODUCT(D34:BA34,D111:BA111))</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -12174,20 +11535,16 @@
       <c r="W34" s="9"/>
     </row>
     <row r="35" spans="1:1025">
-      <c r="A35" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="5">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="str">
         <f>IF(A35="","",SUM(D35:BA35))</f>
-        <v>0</v>
-      </c>
-      <c r="C35" s="8">
+        <v/>
+      </c>
+      <c r="C35" s="8" t="str">
         <f>IF(A35="","",SUMPRODUCT(D35:BA35,D112:BA112))</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
@@ -12209,20 +11566,16 @@
       <c r="W35" s="9"/>
     </row>
     <row r="36" spans="1:1025">
-      <c r="A36" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="5">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5" t="str">
         <f>IF(A36="","",SUM(D36:BA36))</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="8">
+        <v/>
+      </c>
+      <c r="C36" s="8" t="str">
         <f>IF(A36="","",SUMPRODUCT(D36:BA36,D113:BA113))</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
@@ -12244,20 +11597,16 @@
       <c r="W36" s="9"/>
     </row>
     <row r="37" spans="1:1025">
-      <c r="A37" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="5">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="str">
         <f>IF(A37="","",SUM(D37:BA37))</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="8">
+        <v/>
+      </c>
+      <c r="C37" s="8" t="str">
         <f>IF(A37="","",SUMPRODUCT(D37:BA37,D114:BA114))</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
@@ -12279,20 +11628,16 @@
       <c r="W37" s="9"/>
     </row>
     <row r="38" spans="1:1025">
-      <c r="A38" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="5">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5" t="str">
         <f>IF(A38="","",SUM(D38:BA38))</f>
-        <v>0</v>
-      </c>
-      <c r="C38" s="8">
+        <v/>
+      </c>
+      <c r="C38" s="8" t="str">
         <f>IF(A38="","",SUMPRODUCT(D38:BA38,D115:BA115))</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -12314,20 +11659,16 @@
       <c r="W38" s="9"/>
     </row>
     <row r="39" spans="1:1025">
-      <c r="A39" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="5">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5" t="str">
         <f>IF(A39="","",SUM(D39:BA39))</f>
-        <v>0</v>
-      </c>
-      <c r="C39" s="8">
+        <v/>
+      </c>
+      <c r="C39" s="8" t="str">
         <f>IF(A39="","",SUMPRODUCT(D39:BA39,D116:BA116))</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
@@ -12349,20 +11690,16 @@
       <c r="W39" s="9"/>
     </row>
     <row r="40" spans="1:1025">
-      <c r="A40" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="5">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5" t="str">
         <f>IF(A40="","",SUM(D40:BA40))</f>
-        <v>0</v>
-      </c>
-      <c r="C40" s="8">
+        <v/>
+      </c>
+      <c r="C40" s="8" t="str">
         <f>IF(A40="","",SUMPRODUCT(D40:BA40,D117:BA117))</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
@@ -12384,20 +11721,16 @@
       <c r="W40" s="9"/>
     </row>
     <row r="41" spans="1:1025">
-      <c r="A41" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="5">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5" t="str">
         <f>IF(A41="","",SUM(D41:BA41))</f>
-        <v>0</v>
-      </c>
-      <c r="C41" s="8">
+        <v/>
+      </c>
+      <c r="C41" s="8" t="str">
         <f>IF(A41="","",SUMPRODUCT(D41:BA41,D118:BA118))</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -12419,20 +11752,16 @@
       <c r="W41" s="9"/>
     </row>
     <row r="42" spans="1:1025">
-      <c r="A42" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="5">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5" t="str">
         <f>IF(A42="","",SUM(D42:BA42))</f>
-        <v>0</v>
-      </c>
-      <c r="C42" s="8">
+        <v/>
+      </c>
+      <c r="C42" s="8" t="str">
         <f>IF(A42="","",SUMPRODUCT(D42:BA42,D119:BA119))</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -12454,20 +11783,16 @@
       <c r="W42" s="9"/>
     </row>
     <row r="43" spans="1:1025">
-      <c r="A43" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="5">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5" t="str">
         <f>IF(A43="","",SUM(D43:BA43))</f>
-        <v>0</v>
-      </c>
-      <c r="C43" s="8">
+        <v/>
+      </c>
+      <c r="C43" s="8" t="str">
         <f>IF(A43="","",SUMPRODUCT(D43:BA43,D120:BA120))</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
@@ -12489,20 +11814,16 @@
       <c r="W43" s="9"/>
     </row>
     <row r="44" spans="1:1025">
-      <c r="A44" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="5">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5" t="str">
         <f>IF(A44="","",SUM(D44:BA44))</f>
-        <v>0</v>
-      </c>
-      <c r="C44" s="8">
+        <v/>
+      </c>
+      <c r="C44" s="8" t="str">
         <f>IF(A44="","",SUMPRODUCT(D44:BA44,D121:BA121))</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="9">
-        <v>0.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -13438,7 +12759,7 @@
     </row>
     <row r="83" spans="1:1025" hidden="true">
       <c r="A83" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D83" s="1">
         <f>IF(D5="","",D4/D2)</f>
@@ -13855,16 +13176,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="10" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>0</v>
@@ -13872,16 +13193,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -13889,16 +13210,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -13906,16 +13227,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>1</v>
